--- a/ind1/candle_cal/ma.xlsx
+++ b/ind1/candle_cal/ma.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwa56\AppData\Roaming\MetaQuotes\Terminal\D0E8209F77C8CF37AD8BF550E51FF075\MQL5\Indicators\_Ind\ind1\candle_cal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D9A95-7D04-481F-B4B5-827C1989B52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B6ACF2-471F-4D7C-8637-D71B9BB6CC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" xr2:uid="{7D969393-B433-40A1-BA3A-AF3460C0A257}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15120" activeTab="1" xr2:uid="{7D969393-B433-40A1-BA3A-AF3460C0A257}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MA" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>EMA</t>
     <phoneticPr fontId="1"/>
@@ -610,6 +611,71 @@
     <t>サービス</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>0.2，2，0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X,Frame,PoTyぺ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.2，2，-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正後</t>
+    <rPh sb="0" eb="3">
+      <t>シュウセイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記のEAの結果はNG。BaseTimeFrameがM5になっていたので、M1に変更して、再実施</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>サイジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20年usjp</t>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>22：1-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2010から2205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMA10を逆方向へ</t>
+    <rPh sb="6" eb="9">
+      <t>ギャクホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -3485,8 +3551,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10361794" y="20723169"/>
-              <a:ext cx="3432927" cy="3477021"/>
+              <a:off x="10361819" y="20723027"/>
+              <a:ext cx="3432879" cy="3477299"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4525,8 +4591,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9318928" y="25496699"/>
-              <a:ext cx="572017" cy="1200285"/>
+              <a:off x="9318957" y="25496567"/>
+              <a:ext cx="571960" cy="1200554"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4915,8 +4981,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5173475" y="14701399"/>
-              <a:ext cx="696563" cy="5690298"/>
+              <a:off x="5173498" y="14701255"/>
+              <a:ext cx="696516" cy="5690581"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5110,8 +5176,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4681325" y="21479191"/>
-              <a:ext cx="776545" cy="5502739"/>
+              <a:off x="4681304" y="21479054"/>
+              <a:ext cx="776587" cy="5503019"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5175,8 +5241,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2614937" y="21512326"/>
-              <a:ext cx="2333520" cy="1712280"/>
+              <a:off x="2614937" y="21512170"/>
+              <a:ext cx="2333520" cy="1712584"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6718,8 +6784,8 @@
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4898159" y="45652614"/>
-              <a:ext cx="3514322" cy="2338197"/>
+              <a:off x="4898174" y="45652470"/>
+              <a:ext cx="3514291" cy="2338481"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7910,8 +7976,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>301776</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>234425</xdr:rowOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>1159</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
@@ -8825,6 +8891,1199 @@
         <a:xfrm>
           <a:off x="8478051" y="56151075"/>
           <a:ext cx="8360447" cy="849108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>678244</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>99926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="916" name="図 915">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A535B2A7-FE41-4463-B28D-C0BB7DE64581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId247"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7780084" y="58046471"/>
+          <a:ext cx="4866042" cy="1284548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>537905</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>105061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="917" name="図 916">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6128E3AA-08A5-4C06-880F-183D7484D8B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId248"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7780084" y="59468016"/>
+          <a:ext cx="13101300" cy="1763532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>117139</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>190198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="918" name="図 917">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492B01B4-8480-4E84-833D-69BFEFE62D38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId249"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8478051" y="62548034"/>
+          <a:ext cx="10586634" cy="664046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>526626</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>195948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="919" name="図 918">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5604E665-A6EC-44EB-8501-F61BD10836D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId250"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8478051" y="63495731"/>
+          <a:ext cx="10298155" cy="195948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>38422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>436089</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>94496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="920" name="図 919">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDA760E-2AB4-46D6-85A9-AC92943F291F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId251"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7754470" y="65192623"/>
+          <a:ext cx="13025098" cy="1714545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51226</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>64034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>496600</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>114666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="921" name="図 920">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C6492E-4283-429F-87D3-23875D22E8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId252"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7831310" y="67587480"/>
+          <a:ext cx="13008769" cy="1709102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25614</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>140874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279304</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>167780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="922" name="図 921">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B41D79-3C84-4B6B-A347-192B256C6AD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId253"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7805698" y="67190470"/>
+          <a:ext cx="4441488" cy="500756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>286348</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>214845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="923" name="図 922">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CB4E99-FE69-48B6-BAC4-714C352E7C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId254"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7780084" y="69655765"/>
+          <a:ext cx="4474146" cy="451769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>678756</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>230521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>581023</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="924" name="図 923">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA34D066-2CD5-4A6E-834D-EA771ED58512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId255"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7760874" y="70123210"/>
+          <a:ext cx="13163628" cy="1799345"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19210</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>19211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>579742</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>155511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="925" name="図 924">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62052356-C9EB-4F04-9637-97215222CF59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId256"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810271" y="64866967"/>
+          <a:ext cx="13156858" cy="1069360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621582</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>85988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>567550</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>225491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="926" name="図 925">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BEE910-8165-4F70-A62E-F4BB083FB21F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId257"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7712848" y="67033131"/>
+          <a:ext cx="13242089" cy="1072564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660919</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>171063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>536511</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>54621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="927" name="図 926">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D1BF05-618F-49EC-A436-3972440B3BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId258"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7752185" y="69684124"/>
+          <a:ext cx="13171713" cy="1049884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>342425</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>174261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="928" name="図 927">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69C8357-9973-4A86-B60E-B16B58DDCC63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId259"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21786980" y="63914694"/>
+          <a:ext cx="11539159" cy="3439976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>23326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>417757</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>193669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="929" name="図 928">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FD2477-4757-4078-879B-C2C9E230A64F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId260"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21841409" y="61605367"/>
+          <a:ext cx="8061082" cy="2269731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>87472</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>91006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="930" name="図 929">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1204FA1C-9086-4969-8FA6-F3B0BF1A37E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId261"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791061" y="71612449"/>
+          <a:ext cx="14783187" cy="1257333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>103801</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>85564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="931" name="図 930">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAADB3DC-D57F-424B-8E63-5D189099446F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId262"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791061" y="73012041"/>
+          <a:ext cx="14799516" cy="1251890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>163674</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>161767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="932" name="図 931">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD9910-9246-4607-9BE4-5E33D01AEB27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId263"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791061" y="74644899"/>
+          <a:ext cx="14859389" cy="1328092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>385099</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>56041</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="933" name="図 932">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F974E1-9A20-4108-BD0F-F47269D80F14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId264"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791061" y="76744286"/>
+          <a:ext cx="8082854" cy="2155428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>192984</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>220157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="934" name="図 933">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D945F0-145A-4D19-A5A1-C87FF635321D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId265"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16188613" y="76744286"/>
+          <a:ext cx="5791351" cy="4185667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152788</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>210835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="935" name="図 934">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823D1682-7CC8-4643-8B56-C1DF68AFE6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId266"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791061" y="78952530"/>
+          <a:ext cx="14848503" cy="4534019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>82029</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>1652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="936" name="図 935">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2253BD9C-BDD7-41FB-BB5C-58CF65F51CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId267"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791061" y="83742244"/>
+          <a:ext cx="14777744" cy="3733898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>580434</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>98845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="937" name="図 936">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23C94E1-5EF4-4912-85F5-0E2ADD0F7820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId268"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791061" y="87707756"/>
+          <a:ext cx="14576353" cy="3597823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>536890</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>101194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="938" name="図 937">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1398585-70BA-44E9-BEF2-3B5D1A253654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId269"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791061" y="91440000"/>
+          <a:ext cx="14532809" cy="4299970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>558662</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>187456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="939" name="図 938">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC561FF5-B436-439F-BC88-07C249355D7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId270"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791061" y="95872041"/>
+          <a:ext cx="14554581" cy="2520109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>16657</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>174317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7754E01D-A875-4757-A89F-ECE2039D674A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="696686" y="234043"/>
+          <a:ext cx="12557000" cy="5557303"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103414</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>130703</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>65407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7E231A-D177-4179-8285-1D2E368903F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8463643" y="6134100"/>
+          <a:ext cx="2814031" cy="3527064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571606</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>32755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E44C68-0A51-4B7A-854A-C78311785611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6139543"/>
+          <a:ext cx="4055035" cy="3723012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10638,60 +11897,60 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6126 2192 20327 0 0,'-2'2'210'0'0,"0"0"1"0"0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-2 4 1 0 0,-5 33-191 0 0,-5 88-1188 0 0,-19 109-226 0 0,22-159 2080 0 0,1 113-1 0 0,6-67 402 0 0,-17 600 418 0 0,12-357-1090 0 0,1 263-759 0 0,16-358 66 0 0,-2-86 661 0 0,13 211 2012 0 0,-12-259-1911 0 0,-7-107-385 0 0,18 396 322 0 0,-1 38 316 0 0,-1-329-274 0 0,-12-78-326 0 0,-3-39-87 0 0,-1 0 0 0 0,-1 0-1 0 0,-2 34 1 0 0,-7 66-289 0 0,3-72-357 0 0,5-45 379 0 0,-1-1-36 0 0,1 0 203 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-462 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-2 0 0 0,-7-12-7698 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="739.67">1973 3975 21855 0 0,'7'-10'307'0'0,"0"1"-1"0"0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,0 1 1 0 0,18-12-1 0 0,4 0-332 0 0,39-18 0 0 0,-17 13-84 0 0,0 3 1 0 0,2 1-1 0 0,0 4 0 0 0,1 1 1 0 0,1 3-1 0 0,86-7 0 0 0,315 18-162 0 0,85 47 1384 0 0,-322-16-673 0 0,257 67-1 0 0,225 59 858 0 0,-645-148-1184 0 0,-1-3 0 0 0,1-2 0 0 0,0-3-1 0 0,0-3 1 0 0,0-2 0 0 0,-1-2 0 0 0,0-3-1 0 0,-1-3 1 0 0,90-32 0 0 0,-134 41-204 0 0,0-2-1 0 0,-1 1 1 0 0,19-13 0 0 0,-6-3-7522 0 0,-14 8-830 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1082.33">5521 3440 21943 0 0,'0'0'2285'0'0,"2"2"-2167"0"0,127 228 2668 0 0,-107-184-2755 0 0,-1 2 0 0 0,-3 1 0 0 0,13 58 0 0 0,-29-97 5 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 1 0 0,-2 0-1 0 0,-3 12 0 0 0,0-8 2 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-19 21 0 0 0,7-9-60 0 0,-1-2 0 0 0,-1 0 1 0 0,-1-2-1 0 0,-1 0 0 0 0,-1-2 1 0 0,-1-1-1 0 0,0-1 0 0 0,-42 19 1 0 0,33-21-199 0 0,8-2-339 0 0,0-2 0 0 0,-1 0-1 0 0,0-3 1 0 0,-33 7-1 0 0,33-11-5524 0 0,1 0-1926 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1640.51">2059 2095 22375 0 0,'-11'-3'2687'0'0,"7"5"-1320"0"0,11 20-1256 0 0,-1-12-285 0 0,-1 1 0 0 0,2 0 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,12 8 0 0 0,-13-11-1386 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,16 6 0 0 0,0-3-5691 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2137.04">2393 2356 12207 0 0,'-2'2'943'0'0,"-5"7"-799"0"0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,-15 8 0 0 0,-51 41-8 0 0,61-47-204 0 0,1 1 0 0 0,0-1-1 0 0,1 2 1 0 0,0 0 0 0 0,1 0 0 0 0,-13 18-1 0 0,17-20 712 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-3 19 1 0 0,5-24-434 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,4 7-1 0 0,-2-5-91 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,11 6 0 0 0,-6-5-160 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-2 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,22-12 0 0 0,-12 2-5701 0 0,0-1-1903 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2138.04">2954 1921 25487 0 0,'0'0'2776'0'0,"1"3"-2824"0"0,7 29-204 0 0,2 0 1 0 0,1-1-1 0 0,17 35 0 0 0,-20-40-1371 0 0,-7-8-5184 0 0,-4-4-1284 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2520.77">2908 2459 12207 0 0,'0'0'943'0'0,"2"-1"-618"0"0,14-4 1645 0 0,1 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,32-1 0 0 0,-16 1-1071 0 0,-7 3-684 0 0,1 0-1 0 0,-1 2 1 0 0,0 1-1 0 0,0 1 0 0 0,-1 1 1 0 0,36 12-1 0 0,-56-16-209 0 0,13 4 8 0 0,-1 0 0 0 0,0 2 0 0 0,19 9 1 0 0,-32-14 6 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,3 6 1 0 0,-3-4 20 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-6 7 1 0 0,-7 12 61 0 0,-1-1 1 0 0,-40 42 0 0 0,57-66-104 0 0,-9 9-263 0 0,0-2 0 0 0,0 1-1 0 0,-20 11 1 0 0,27-17-636 0 0,-12 4 1363 0 0,10-5-2900 0 0,-14-5-10989 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2939.25">3961 2016 24991 0 0,'0'0'1928'0'0,"3"0"-1244"0"0,2-1-616 0 0,28 4-11 0 0,-25-2-111 0 0,1 1 0 0 0,-1 0 0 0 0,10 4 0 0 0,1 4-27 0 0,-15-7 58 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 6 0 0 0,-2-6-73 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-7 6 0 0 0,-36 36-2205 0 0,-59 46 0 0 0,50-47-272 0 0,54-44 2717 0 0,-21 16 1050 0 0,7-11 5297 0 0,18-3-6297 0 0,29 22 156 0 0,-13-12-313 0 0,70 56 17 0 0,-85-66-54 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2 5 0 0 0,0 1 15 0 0,-5-9-11 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 1 1 0 0,0 1 7 0 0,-2 8 64 0 0,0 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0-1-1 0 0,-9 11 1 0 0,-9 8 128 0 0,-31 30-1 0 0,29-33-395 0 0,0 2-1310 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3339.35">4543 2253 23327 0 0,'-30'30'2595'0'0,"-5"3"-1670"0"0,20-20-746 0 0,-23 25-1 0 0,33-31-172 0 0,-12 15 36 0 0,-2-1-1 0 0,-35 31 1 0 0,38-35-42 0 0,14-14 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-5 2 0 0 0,5-3 0 0 0,-1 1 2 0 0,-1 0-1 0 0,1-1 1 0 0,-1 2 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-2 4 1 0 0,-3 5 7 0 0,1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-8 22 0 0 0,9-15-124 0 0,7-13 124 0 0,0-2-15 0 0,-1 0 27 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,6 5-1 0 0,3 1 85 0 0,0-1 0 0 0,0-1-1 0 0,22 8 1 0 0,139 39 372 0 0,18 7-871 0 0,-184-57 239 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,8 6 1 0 0,3 9-1953 0 0,-18-17 1441 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 3-1 0 0,-2 8-7053 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5657.96">5336 2522 23327 0 0,'0'3'233'0'0,"-1"-1"0"0"0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,2 2 0 0 0,10 32-656 0 0,-9-27 703 0 0,46 132 62 0 0,-40-121-516 0 0,1 0-1 0 0,13 21 0 0 0,8 16-2697 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5993.35">5603 2591 18543 0 0,'-9'3'1932'0'0,"-10"2"-946"0"0,1 0-1 0 0,0 2 0 0 0,0 0 0 0 0,-22 11 1 0 0,-59 30-1277 0 0,98-47 107 0 0,13-1-7656 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6442.61">5456 2772 22375 0 0,'-29'6'1810'0'0,"-53"18"0"0"0,72-20-1770 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 2-1 0 0,1-1 1 0 0,1 1 0 0 0,-9 8-1 0 0,-6 9-107 0 0,11-12-129 0 0,-19 25 1 0 0,30-36 29 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 7-7245 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6962.24">5274 2609 13039 0 0,'-14'2'7906'0'0,"13"-2"-7683"0"0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 2-1 0 0,3 5-92 0 0,-1 1-49 0 0,1-7-83 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0 2 1 0 0,5 16 9 0 0,-1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-2 0 0 0 0,1 24 0 0 0,-1-17-212 0 0,1 0 0 0 0,6 26 0 0 0,-9-51 56 0 0,8 12-126 0 0,-7-14 7 0 0,7 13-217 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23886.03">76 8148 13039 0 0,'0'0'1006'0'0,"3"0"-658"0"0,42-9 3249 0 0,-42 8-3028 0 0,1-1-138 0 0,-3 2-386 0 0,36-18 1179 0 0,46-13 0 0 0,-69 26-1091 0 0,-1 2 1 0 0,1 0-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0 1 0 0 0,20 1 1 0 0,7 6 10 0 0,42 11 1 0 0,-48-9-44 0 0,0-1 1 0 0,42 3-1 0 0,207-16-150 0 0,-161-1 95 0 0,125 14 952 0 0,-2 21-1425 0 0,-194-23 275 0 0,203 33-908 0 0,12 1-923 0 0,3-21 914 0 0,-137-18 1553 0 0,-1-7 0 0 0,147-25 0 0 0,136-19 1679 0 0,-319 45-1917 0 0,0 5 0 0 0,0 4 1 0 0,151 26-1 0 0,-52 4 515 0 0,-143-27-134 0 0,93-1 1 0 0,79-16 601 0 0,-215 10-1175 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,12 4 1 0 0,2 0-45 0 0,-18-5-27 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,4 3-1 0 0,9 5-23 0 0,-4-4 27 0 0,-6-4-8 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,9 12 0 0 0,-7-9 10 0 0,-7-8 7 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1 0 1 0 0,-4 8-247 0 0,-8-3-295 0 0,12-4-49 0 0,-5 1 1037 0 0,-18-9-16171 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24946.55">4438 7470 6535 0 0,'-1'2'500'0'0,"-9"20"17130"0"0,10-21-17563 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,2 1-1 0 0,26 20-356 0 0,8 4 561 0 0,-1 1 0 0 0,47 47 0 0 0,70 67 285 0 0,-81-79-525 0 0,10 3 18 0 0,-12-12 36 0 0,-68-51-1 0 0,12 7 87 0 0,-11-7-120 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,3 3 0 0 0,-1 3-39 0 0,-2 3-1 0 0,-3-10-5 0 0,1 1 6 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-3 2 0 0 0,-1 3-13 0 0,-1-1 7 0 0,0 1-1 0 0,-16 10 1 0 0,-74 62 386 0 0,45-27-392 0 0,-2 5-68 0 0,17-18-56 0 0,15-14-115 0 0,-20 28 0 0 0,10-11-668 0 0,30-41 596 0 0,1 2-24 0 0,0 0-272 0 0,-4 8 853 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27874.13">338 6321 12207 0 0,'-7'1'1268'0'0,"0"-1"-868"0"0,6 1-100 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0 28 1194 0 0,0-26-1645 0 0,0 6 92 0 0,0 0-1 0 0,-4 19 1 0 0,2-20 21 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 18 0 0 0,4 57 38 0 0,-9-40 0 0 0,5-38 10 0 0,-6 18-76 0 0,2-14-16 0 0,1 1-643 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28391.33">360 6314 6535 0 0,'1'-2'500'0'0,"8"-22"906"0"0,-6-1 6691 0 0,-1 7-2539 0 0,5 14-4719 0 0,-6 4-803 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,2-1 1 0 0,10 5 202 0 0,1-1 1 0 0,20 3-1 0 0,10 3 228 0 0,-18-5-350 0 0,-20-4-106 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,7 2 0 0 0,11 5 1 0 0,-16-6-12 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,13 10 0 0 0,-16-11-37 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-4 8 0 0 0,1 0 60 0 0,2-6-149 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-5 9 0 0 0,-7 17-507 0 0,14-33 472 0 0,-7 12-243 0 0,6-9 52 0 0,0-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,-5 1-1 0 0,7-2-1148 0 0,-1-1-32 0 0,-3-1 574 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,-8-7 1 0 0,12 8-493 0 0,-13-8 1273 0 0,-22-17 14337 0 0,37 26-13964 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,4-6 4700 0 0,-2 6-4701 0 0,1-2-152 0 0,1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,7 2 1 0 0,5-1 112 0 0,-1 0 0 0 0,18-2 1 0 0,71-14-588 0 0,-101 14-294 0 0,23-4-3005 0 0,-17 2-401 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28732.05">558 6659 13039 0 0,'-1'3'1006'0'0,"-6"33"-311"0"0,2 25 5087 0 0,4-44-3933 0 0,0 17-1626 0 0,1 1 1 0 0,2-1-1 0 0,1 0 0 0 0,11 45 0 0 0,-10-31-3785 0 0,-4-46 2299 0 0,1 7-999 0 0,10-18-7281 0 0,-9 7 9091 0 0,0-1 1 0 0,2-4-1 0 0,3-10-1939 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29064.79">692 6764 16559 0 0,'0'0'1275'0'0,"2"1"-827"0"0,18 4 59 0 0,52 18 4534 0 0,-26-7-4344 0 0,-44-16-632 0 0,11 3-2029 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29413.38">269 6822 20327 0 0,'-3'11'562'0'0,"-1"-1"-1"0"0,0 0 1 0 0,-7 12-1 0 0,-4 9-7 0 0,5-9 164 0 0,6-15-428 0 0,1 1 1 0 0,-1 0 0 0 0,2 0-1 0 0,-3 8 1 0 0,-6 19 54 0 0,9-29-529 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 10 1 0 0,1-15-264 0 0,0 2-2013 0 0,0-2 2563 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0-1 0 0,0 0 26 0 0,10-3 83 0 0,90-7-313 0 0,-90 9 205 0 0,0 0-105 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,1 1 1 0 0,-2 0-1 0 0,1 1 0 0 0,16 6 1 0 0,6 7-2 0 0,45 29 0 0 0,-45-26 71 0 0,43 21 0 0 0,66 31 141 0 0,-129-63-73 0 0,0-2 1 0 0,1 1-1 0 0,0-2 0 0 0,17 6 1 0 0,-27-11-291 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,6-4 0 0 0,4-6-5325 0 0,-2-2-1720 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30017.03">191 6956 12207 0 0,'-1'1'107'0'0,"-1"-1"0"0"0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 3 0 0 0,-4 5 1332 0 0,-7 6 4061 0 0,1 1-3533 0 0,-13 15-1071 0 0,18-23-767 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,-7 18 1 0 0,-13 22-398 0 0,-12 26-736 0 0,37-74 471 0 0,-1 2 698 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31340.43">1214 6695 5695 0 0,'0'0'12831'0'0,"2"0"-12130"0"0,45 3 1126 0 0,-20 1-1802 0 0,-2 1-25 0 0,33 14 340 0 0,0 3-1 0 0,93 51 1 0 0,-146-71-346 0 0,-1 1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 11 0 0 0,-1-3 75 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-6 17 0 0 0,4-15-21 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-14 19 1 0 0,8-15-162 0 0,8-11 68 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-14 9 0 0 0,14-11-363 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-7 2-1 0 0,8-4-785 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-9-2 0 0 0,0-1-4148 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31678.95">1895 6703 23327 0 0,'1'14'773'0'0,"-1"1"-1"0"0,-3 22 1 0 0,0 16-539 0 0,9 64 241 0 0,1-26-1317 0 0,-7-89 472 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32016.05">2144 6743 10159 0 0,'0'0'784'0'0,"2"1"-510"0"0,5 2 819 0 0,0-1 1 0 0,0 2-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,10 9-1 0 0,-10-7-575 0 0,1 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,4 11 1 0 0,-3-4-461 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-1 22 0 0 0,0-15-61 0 0,0-9-137 0 0,-1 0-1 0 0,-3 23 1 0 0,3-35-84 0 0,1 1-64 0 0,-2 6 53 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32363.71">2629 6706 22375 0 0,'0'0'1720'0'0,"3"2"-1109"0"0,3 1-564 0 0,102 56 1271 0 0,-94-50-1270 0 0,0 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,15 18 0 0 0,-20-21-48 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,5 15 0 0 0,-8-15 60 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,-6 22-1 0 0,8-33-41 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 2 0 0 0,-13 15 30 0 0,8-8-48 0 0,7-9 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,-2-1-1 0 0,-1 1-31 0 0,0 1-74 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-4-1 0 0 0,4 1-149 0 0,3-1 113 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-2-2-1 0 0,-4-8-1298 0 0,1-2-4256 0 0,1 0-1632 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32364.71">2876 6708 10159 0 0,'0'0'784'0'0,"2"-2"-510"0"0,9-9 3358 0 0,5 8 4525 0 0,-17 14-4415 0 0,-2 2-4891 0 0,-3 8 1292 0 0,-2 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,-15 20 0 0 0,-13 29 94 0 0,22-38-957 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32702.71">3182 6832 18543 0 0,'17'9'781'0'0,"0"1"0"0"0,-1 1 0 0 0,0 1 0 0 0,22 21 0 0 0,-20-17 397 0 0,40 28 0 0 0,-40-32-885 0 0,23 20-1 0 0,-12-8-561 0 0,-27-22-220 0 0,8 9-1754 0 0,-2-3-3311 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35582.97">5936 8264 20559 0 0,'-10'12'597'0'0,"1"0"0"0"0,0 1 1 0 0,1 0-1 0 0,-8 20 0 0 0,-21 59 556 0 0,0 2-1677 0 0,21-54 538 0 0,1 1 0 0 0,3 1-1 0 0,1 0 1 0 0,-7 63 0 0 0,8-39 54 0 0,3 1-1 0 0,3-1 1 0 0,3 1-1 0 0,9 76 0 0 0,-4-106-283 0 0,2 0 0 0 0,2 0-1 0 0,1 0 1 0 0,18 45-1 0 0,-18-58 286 0 0,2-1 0 0 0,1-1-1 0 0,0 0 1 0 0,2 0-1 0 0,0-1 1 0 0,2-1 0 0 0,22 24-1 0 0,-28-35-112 0 0,0-1-1 0 0,1 1 1 0 0,-1-2-1 0 0,1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,25 4-1 0 0,-10-4-207 0 0,1-1 0 0 0,1-1-1 0 0,-1-2 1 0 0,42-4 0 0 0,-58 2 331 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,18-10 1 0 0,-5 1 459 0 0,32-23 0 0 0,-45 26-311 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,14-22 1 0 0,42-82 733 0 0,-62 107-937 0 0,6-13 87 0 0,-1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,5-32 0 0 0,-6 14 129 0 0,3-68 1 0 0,-10 72-133 0 0,-2 0 0 0 0,-1 0 0 0 0,-2 1 0 0 0,-2-1 1 0 0,-1 1-1 0 0,-2 1 0 0 0,-18-46 0 0 0,-83-157 415 0 0,53 120-358 0 0,45 93-165 0 0,0 0 0 0 0,-2 0 0 0 0,-1 1 0 0 0,-34-38 0 0 0,33 45 13 0 0,0 2-1 0 0,-1 0 1 0 0,0 0-1 0 0,-29-14 1 0 0,35 20-12 0 0,-5 1 2 0 0,1-1-1 0 0,-1 2 1 0 0,0 0-1 0 0,-1 1 1 0 0,1 1-1 0 0,-20-2 1 0 0,-3-1-10 0 0,-1 3-179 0 0,39 4 113 0 0,-14 0-15 0 0,4 1 8 0 0,-14 4-208 0 0,24-5 192 0 0,0 1-21 0 0,-3 2-148 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-7 7 1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36345.06">7037 8462 15807 0 0,'4'0'363'0'0,"99"-2"986"0"0,106 3 917 0 0,304 76 3603 0 0,-410-58-5763 0 0,457 109 781 0 0,-318-42-239 0 0,-236-83-601 0 0,-3-2-51 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,7-3 0 0 0,-8 3-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-2 0 0 0,1 0-10 0 0,0-2-83 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-4-1 0 0,-11-28-7558 0 0,2 16-164 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3445.18">4854 971 24991 0 0,'-3'8'2612'0'0,"2"-6"-2644"0"0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,0 3 0 0 0,0-1-22 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,4 5-1 0 0,3 2-188 0 0,1 0-1 0 0,0-1 1 0 0,20 14 0 0 0,-9-8-585 0 0,1-1 1 0 0,1-2-1 0 0,0 0 0 0 0,32 12 1 0 0,-45-22 50 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1-1 0 0,18-2 1 0 0,-24 1 761 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,5-4-1 0 0,-3 1 899 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,7-12 1970 0 0,-13 15-2205 0 0,1 3-618 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-4 0-10 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-4 4-1 0 0,-5 6-63 0 0,0 0 0 0 0,-17 27 0 0 0,17-23 314 0 0,2 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0 1 0 0 0,2-1-1 0 0,0 1 1 0 0,-5 23 0 0 0,11-39-228 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,1 0 12 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,6 0 0 0 0,-1 0-11 0 0,1 0-1 0 0,0-1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,16-5-1 0 0,14-9-1558 0 0,-2-3-5185 0 0,-14 5-1012 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3071.19">5912 948 22375 0 0,'0'20'1984'0'0,"-3"-4"-1584"0"0,1 5-320 0 0,-1 1-80 0 0,0 1 80 0 0,1-2 0 0 0,1 0 0 0 0,-1 3 0 0 0,1 4-80 0 0,1-6 0 0 0,1-6 0 0 0,-1 2-6688 0 0,-1 0-1368 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3070.19">6397 973 21511 0 0,'2'2'488'0'0,"11"13"198"0"0,10 10-69 0 0,29 42 0 0 0,-49-62-519 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 12-1 0 0,-2 4 195 0 0,-5 36 1 0 0,5-55-279 0 0,-2 18-134 0 0,-2 0 1 0 0,0 0-1 0 0,-15 33 0 0 0,-1-5-7423 0 0,16-38-11 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1656.51">9103 660 22375 0 0,'0'0'2331'0'0,"0"2"-2211"0"0,-9 148 2518 0 0,-1-3-3647 0 0,10-119-2716 0 0,6 41 0 0 0,-3-48-4449 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1655.51">9462 986 19119 0 0,'13'29'1696'0'0,"-12"-7"-1352"0"0,-4 9-280 0 0,0 3-64 0 0,1 4 320 0 0,-6-1 40 0 0,-6 2 16 0 0,-4 1 0 0 0,-2 1-376 0 0,-8-3 0 0 0,-5-4-80 0 0,-2-3 16 0 0,4-4-488 0 0,0-4-96 0 0,-1-7-24 0 0,3-5-4920 0 0,5-4-984 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1279.73">9012 1414 11951 0 0,'-3'-24'-144'0'0,"1"7"2429"0"0,0-1 1 0 0,1-35 0 0 0,2 46-1801 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,5-7 0 0 0,-5 7-355 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,7-2 0 0 0,-9 4-110 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,4 1 0 0 0,137 72 298 0 0,-136-69-267 0 0,10 6-4 0 0,0 1 1 0 0,-2 0-1 0 0,1 1 1 0 0,-2 1-1 0 0,0 1 0 0 0,0 1 1 0 0,-2 0-1 0 0,16 23 1 0 0,-27-36-98 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1 5 0 0 0,-1 5-2394 0 0,-4 0-3421 0 0,-1-1-2179 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2710.33">7182 545 25367 0 0,'5'1'579'0'0,"65"3"150"0"0,-42-3-360 0 0,-1 1 0 0 0,1 1 0 0 0,43 11 0 0 0,-48-8-549 0 0,0 2 0 0 0,0 0 0 0 0,-1 2 0 0 0,-1 0 0 0 0,35 23 0 0 0,-40-23-200 0 0,6 6-1345 0 0,-10-3-5160 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2709.33">7067 916 18023 0 0,'0'0'1878'0'0,"2"0"-1782"0"0,47 0 2327 0 0,149-6 363 0 0,-173 4-3480 0 0,-1-2 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0-2 1 0 0,26-13-1 0 0,-39 16-301 0 0,-1-1 0 0 0,15-10 0 0 0,0-7-4699 0 0,-14 9 638 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2348.11">7629 673 12207 0 0,'0'0'3042'0'0,"0"3"-1098"0"0,4 32-450 0 0,-1 0 0 0 0,-2 0 0 0 0,-1 0 0 0 0,-8 58 0 0 0,-3 7-2060 0 0,5-28-660 0 0,-21 90 1 0 0,23-145 1048 0 0,-1 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-15 19 0 0 0,18-28 324 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-9 5 0 0 0,11-7-27 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-7-1 0 0 0,8 1-84 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-5 1 0 0,0 1 1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,6-9-1 0 0,-6 12-15 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,7-2 0 0 0,31-6-476 0 0,98-26 2046 0 0,-73 10-3440 0 0,-48 16-1612 0 0,26-16 0 0 0,-28 13-4146 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1986.25">8048 774 24047 0 0,'-16'10'528'0'0,"10"0"112"0"0,1 3 16 0 0,0 1 16 0 0,-3 2-536 0 0,0 4-136 0 0,4-1 0 0 0,-1 3 0 0 0,2 3 136 0 0,1 0 0 0 0,2 0 0 0 0,5 0 0 0 0,1 0-376 0 0,5-3-80 0 0,2-2-8 0 0,3-6-6744 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1985.25">8449 989 18023 0 0,'-25'39'1379'0'0,"-27"60"-1"0"0,44-84-919 0 0,-6 13 387 0 0,1 1 0 0 0,1 0 1 0 0,2 1-1 0 0,-12 49 0 0 0,21-73-770 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,5 5 0 0 0,-3-4-71 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,13 1-1 0 0,30-3-1237 0 0,-18-5-5948 0 0,-11 2-851 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5189.54">2249 0 18023 0 0,'-3'1'1387'0'0,"1"1"-1345"0"0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 4-1 0 0,-12 43 613 0 0,9-32-198 0 0,-60 202 1966 0 0,53-187-2259 0 0,-11 36 327 0 0,-89 287 343 0 0,94-293-834 0 0,2 1 0 0 0,-8 66 0 0 0,22-117-181 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,1 1 1 0 0,3 15 0 0 0,-4-25-502 0 0,-1-2 540 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 0 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4677.69">2292 91 18023 0 0,'0'9'247'0'0,"0"1"0"0"0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,-5 13 0 0 0,5-9-103 0 0,0 0 0 0 0,1 0 1 0 0,-1 25-1 0 0,-1 1 396 0 0,1-8-220 0 0,0 0-1 0 0,3 1 1 0 0,0-1 0 0 0,8 54 0 0 0,-3-60-265 0 0,0-1-1 0 0,2 0 1 0 0,0-1-1 0 0,1 0 1 0 0,2 0 0 0 0,18 33-1 0 0,-22-46-49 0 0,0 0-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,15 9 1 0 0,-18-14-21 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,9-2 0 0 0,5-3-169 0 0,-1-1-1 0 0,1-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,19-14 0 0 0,83-66 632 0 0,-16 10 38 0 0,-95 74-392 0 0,-1-1 0 0 0,1 1-1 0 0,18-7 1 0 0,-23 11-43 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,6 2 1 0 0,10 3 197 0 0,-14-4-153 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,7 3 0 0 0,-4 0-39 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,6 11 1 0 0,-5-7-34 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,2 18 1 0 0,-2 8-11 0 0,-2-1 0 0 0,-2 0 0 0 0,-11 76-1 0 0,-3-14-42 0 0,2-24-411 0 0,-4 123 1 0 0,19-169-4419 0 0,-1-26 2628 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4158.82">3401 1242 20559 0 0,'-1'-5'244'0'0,"0"0"-1"0"0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,3-5-1 0 0,2-7 78 0 0,11-25 0 0 0,-3 9 338 0 0,-1-1-481 0 0,1 0 0 0 0,33-59 0 0 0,166-234-835 0 0,-191 298 622 0 0,1 1 1 0 0,37-39-1 0 0,-52 60 35 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 2 0 0 0,18-8 0 0 0,-22 10 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 4 0 0 0,5 4 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-2 1 0 0 0,9 13 0 0 0,0 5 0 0 0,-2 0 0 0 0,13 37 0 0 0,6 11 210 0 0,-19-45-67 0 0,-1 1 1 0 0,-2 0 0 0 0,12 48-1 0 0,20 130-143 0 0,-44-206-245 0 0,4 24-407 0 0,-4-12-6384 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3819.27">3915 658 22375 0 0,'0'0'2509'0'0,"3"1"-2191"0"0,109 40 1066 0 0,-109-39-1381 0 0,72 23-1387 0 0,86 42 1 0 0,-155-64 1280 0 0,37 17-6977 0 0,-24-13-96 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368497.1">3661 1509 12583 0 0,'0'0'603'0'0,"2"0"-259"0"0,25-2 73 0 0,9-3 307 0 0,23-1 4316 0 0,-19 1-3747 0 0,-24 3-2392 0 0,-2 1-3917 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369263.78">3792 1591 20847 0 0,'0'0'1012'0'0,"5"10"244"0"0,0-1-1177 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,-1 15 0 0 0,-1-1 112 0 0,-2-1 0 0 0,-1 1-1 0 0,-13 46 1 0 0,-2-10-191 0 0,15-47-794 0 0,-1 0 0 0 0,-1 0 0 0 0,-7 14 0 0 0,0-2-914 0 0,13-23 383 0 0,-6 4-700 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369616.71">3693 1960 10159 0 0,'0'0'8674'0'0,"2"0"-7526"0"0,80-17 3134 0 0,-29 2-4282 0 0,-19 9-1323 0 0,-16 7-5865 0 0,-16-1 6011 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369972.76">4173 1578 18023 0 0,'0'0'1387'0'0,"0"3"-896"0"0,1 6-265 0 0,0-1 255 0 0,-1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-4 11 0 0 0,-4 22-216 0 0,8-32-335 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,-7 11 1 0 0,-7 15-1493 0 0,18-32 603 0 0,-2 2-610 0 0,0 0 698 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370343.14">4208 1589 12207 0 0,'0'0'943'0'0,"2"1"-618"0"0,17 10-89 0 0,-17-10 798 0 0,9 12 1772 0 0,-8-7-2512 0 0,1-1 1 0 0,-1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 0 0 0,0 7 1 0 0,5 32 600 0 0,-3-36-752 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,6 10 0 0 0,-7-14-63 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,7 2 1 0 0,-10-4-56 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3-1 1 0 0,11-4 119 0 0,-14 5-123 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-3 0 0 0,18-31 66 0 0,-10 17-101 0 0,2-3-10 0 0,0-2-1 0 0,-2 1 0 0 0,-1-1 1 0 0,0-1-1 0 0,6-26 1 0 0,-16 49-107 0 0,-1 0-72 0 0,7-21-1032 0 0,-6 21-387 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370690.03">4904 1527 10159 0 0,'1'1'4818'0'0,"3"4"-1989"0"0,6 11 1261 0 0,-8-13-3961 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 5 0 0 0,-1 6 154 0 0,1-8-265 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 6 0 0 0,-22 112 850 0 0,3-17-530 0 0,15-68-249 0 0,11-19-141 0 0,3-7-160 0 0,-2-2-844 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371383.95">5189 1583 6535 0 0,'0'0'17069'0'0,"3"1"-16637"0"0,8 0-352 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,15-8-1 0 0,-18 9-94 0 0,0 0 0 0 0,0 0 0 0 0,15-1 1 0 0,-11 1-123 0 0,-4 1-324 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 1 0 0 0,16 2 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371771.19">5418 1551 18023 0 0,'0'0'1387'0'0,"-2"2"-896"0"0,-5 13-43 0 0,0 1 1 0 0,0-1 0 0 0,2 1-1 0 0,0 0 1 0 0,0 1 0 0 0,2-1 0 0 0,0 1-1 0 0,-1 26 1 0 0,5-29-398 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,2-1-1 0 0,7 23 1 0 0,-10-33-52 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2 2-1 0 0,0 0-28 0 0,-3-4-144 0 0,1 1-89 0 0,8 10 375 0 0,19 9-14720 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="373474.22">5406 1696 18543 0 0,'-5'-3'1552'0'0,"3"3"-1445"0"0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-3 1 0 0 0,10 2 21 0 0,-4-3-119 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 1 0 0,68 7 767 0 0,-66-7-663 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,6 2 1 0 0,10 2 82 0 0,137 5 411 0 0,-143-9-566 0 0,52 8 294 0 0,-53-6-319 0 0,28 3-16 0 0,-2-4 0 0 0,-16-3 0 0 0,-18 1-77 0 0,-1 1-168 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,3-1 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="373811.7">5952 1623 20847 0 0,'0'0'2091'0'0,"0"2"-1914"0"0,3 13 154 0 0,1 0 0 0 0,0 0 0 0 0,7 16-1 0 0,-4-13 11 0 0,7 33-1 0 0,-12-42-338 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-7 11 0 0 0,0-2 24 0 0,-1-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,0 0 0 0 0,-21 14-1 0 0,29-23 8 0 0,0-1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,-12 4 1 0 0,17-6-160 0 0,-1 0-490 0 0,-8 3 465 0 0,-6-4-14695 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6143 2157 20327 0 0,'-2'2'210'0'0,"0"0"1"0"0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 5 1 0 0,-6 32-191 0 0,-6 88-1188 0 0,-18 106-226 0 0,23-156 2080 0 0,0 111-1 0 0,5-66 402 0 0,-15 590 418 0 0,11-351-1090 0 0,1 260-759 0 0,15-354 66 0 0,-1-83 661 0 0,14 206 2012 0 0,-13-254-1911 0 0,-7-106-385 0 0,18 390 322 0 0,-1 39 316 0 0,-2-325-274 0 0,-10-78-326 0 0,-4-37-87 0 0,-1-1 0 0 0,-1 1-1 0 0,-2 34 1 0 0,-7 64-289 0 0,3-71-357 0 0,5-44 379 0 0,-1-1-36 0 0,0 0 203 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-462 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-2 0 0 0,-7-12-7698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="739.67">1979 3912 21855 0 0,'6'-9'307'0'0,"2"-1"-1"0"0,-1 1 1 0 0,2 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,17-10-1 0 0,6-1-332 0 0,38-17 0 0 0,-17 12-84 0 0,1 3 1 0 0,0 2-1 0 0,2 2 0 0 0,0 3 1 0 0,1 3-1 0 0,86-8 0 0 0,317 18-162 0 0,84 46 1384 0 0,-322-16-673 0 0,257 67-1 0 0,226 58 858 0 0,-647-147-1184 0 0,-1-1 0 0 0,1-4 0 0 0,0-2-1 0 0,0-2 1 0 0,0-3 0 0 0,0-3 0 0 0,-1-2-1 0 0,0-2 1 0 0,88-32 0 0 0,-133 39-204 0 0,0 0-1 0 0,0-1 1 0 0,18-11 0 0 0,-7-3-7522 0 0,-12 6-830 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1082.33">5536 3385 21943 0 0,'0'0'2285'0'0,"2"3"-2167"0"0,128 223 2668 0 0,-108-180-2755 0 0,-2 1 0 0 0,-2 1 0 0 0,14 57 0 0 0,-30-95 5 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,-4 12 0 0 0,0-8 2 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-2 1 0 0 0,-19 21 0 0 0,7-10-60 0 0,-1-1 0 0 0,-2-1 1 0 0,0-1-1 0 0,-1 0 0 0 0,-1-3 1 0 0,-1 0-1 0 0,0-1 0 0 0,-42 18 1 0 0,32-20-199 0 0,10-2-339 0 0,-2-2 0 0 0,1-1-1 0 0,-1-1 1 0 0,-34 5-1 0 0,34-10-5524 0 0,1 0-1926 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1640.51">2065 2062 22375 0 0,'-11'-3'2687'0'0,"6"5"-1320"0"0,13 19-1256 0 0,-3-10-285 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,12 9 0 0 0,-13-11-1386 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,18 5 0 0 0,-1-2-5691 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2137.04">2399 2319 12207 0 0,'-1'2'943'0'0,"-7"7"-799"0"0,1-1 0 0 0,-1 1 1 0 0,-1-2-1 0 0,1 1 0 0 0,-1-1 0 0 0,-16 9 0 0 0,-50 40-8 0 0,61-46-204 0 0,1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,0 1 0 0 0,1 0 0 0 0,-13 18-1 0 0,17-21 712 0 0,1 1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,1 2 1 0 0,0-1-1 0 0,1 0 0 0 0,-3 19 1 0 0,5-25-434 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,5 7-1 0 0,-1-5-91 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,11 6 0 0 0,-6-5-160 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-2 1 0 0,0 1-1 0 0,0-1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,20-12 0 0 0,-10 2-5701 0 0,-1 0-1903 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2138.04">2962 1891 25487 0 0,'0'0'2776'0'0,"1"2"-2824"0"0,7 30-204 0 0,2-1 1 0 0,1 0-1 0 0,17 34 0 0 0,-20-40-1371 0 0,-7-7-5184 0 0,-4-3-1284 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2520.77">2916 2421 12207 0 0,'0'0'943'0'0,"2"-1"-618"0"0,14-4 1645 0 0,1 0 0 0 0,0 2-1 0 0,-1 0 1 0 0,33-1 0 0 0,-15 1-1071 0 0,-8 2-684 0 0,0 2-1 0 0,0 1 1 0 0,0 0-1 0 0,0 2 0 0 0,0 1 1 0 0,35 12-1 0 0,-56-16-209 0 0,13 4 8 0 0,-1 0 0 0 0,0 2 0 0 0,19 8 1 0 0,-32-12 6 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0-1 0 0,3 6 1 0 0,-3-4 20 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-5 6 1 0 0,-9 11 61 0 0,0 0 1 0 0,-40 41 0 0 0,57-65-104 0 0,-9 8-263 0 0,0 0 0 0 0,0-1-1 0 0,-20 12 1 0 0,27-17-636 0 0,-12 4 1363 0 0,10-5-2900 0 0,-14-6-10989 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2939.25">3972 1984 24991 0 0,'0'0'1928'0'0,"3"0"-1244"0"0,2-1-616 0 0,28 4-11 0 0,-25-1-111 0 0,1-1 0 0 0,-1 2 0 0 0,10 2 0 0 0,1 5-27 0 0,-15-7 58 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 8 0 0 0,-2-7-73 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-6 6 0 0 0,-38 36-2205 0 0,-59 44 0 0 0,52-46-272 0 0,53-43 2717 0 0,-22 17 1050 0 0,8-12 5297 0 0,18-4-6297 0 0,30 23 156 0 0,-15-12-313 0 0,72 54 17 0 0,-86-63-54 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,2 4 0 0 0,0 0 15 0 0,-5-8-11 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 2 7 0 0,-2 8 64 0 0,-1 0 0 0 0,1-1 0 0 0,-2 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,-9 10 1 0 0,-9 9 128 0 0,-32 29-1 0 0,30-32-395 0 0,0 2-1310 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3339.35">4556 2217 23327 0 0,'-30'30'2595'0'0,"-6"3"-1670"0"0,21-20-746 0 0,-22 24-1 0 0,31-30-172 0 0,-11 14 36 0 0,-2 0-1 0 0,-35 30 1 0 0,38-34-42 0 0,14-15 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-3 2 0 0 0,4-3 0 0 0,-2 0 2 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,-3 5 1 0 0,-1 2 7 0 0,0 2 0 0 0,0-1-1 0 0,1 1 1 0 0,-8 22 0 0 0,10-15-124 0 0,6-13 124 0 0,-1-3-15 0 0,0 1 27 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,8 4-1 0 0,2 0 85 0 0,0 0 0 0 0,0-1-1 0 0,22 8 1 0 0,139 38 372 0 0,18 7-871 0 0,-183-56 239 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,8 6 1 0 0,3 8-1953 0 0,-18-16 1441 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 3-1 0 0,-2 8-7053 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5657.96">5351 2482 23327 0 0,'-1'3'233'0'0,"1"-1"0"0"0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 4 0 0 0,12 31-656 0 0,-10-28 703 0 0,46 130 62 0 0,-40-118-516 0 0,1 0-1 0 0,13 20 0 0 0,8 17-2697 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5993.35">5618 2551 18543 0 0,'-9'3'1932'0'0,"-9"1"-946"0"0,-1 1-1 0 0,1 1 0 0 0,0 1 0 0 0,-22 12 1 0 0,-59 28-1277 0 0,98-46 107 0 0,13-1-7656 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6442.61">5471 2728 22375 0 0,'-29'6'1810'0'0,"-54"18"0"0"0,74-20-1770 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-7 8-1 0 0,-7 9-107 0 0,10-13-129 0 0,-18 26 1 0 0,30-36 29 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 7-7245 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6962.24">5288 2568 13039 0 0,'-14'2'7906'0'0,"14"-2"-7683"0"0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,1 7-92 0 0,1-1-49 0 0,-1-5-83 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 3 1 0 0,5 16 9 0 0,0 0 0 0 0,-2 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 24 0 0 0,-2-17-212 0 0,2-1 0 0 0,6 27 0 0 0,-8-52 56 0 0,7 13-126 0 0,-8-14 7 0 0,9 13-217 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23886.03">76 8020 13039 0 0,'0'0'1006'0'0,"3"0"-658"0"0,43-9 3249 0 0,-43 8-3028 0 0,0-1-138 0 0,-1 2-386 0 0,34-17 1179 0 0,48-15 0 0 0,-71 28-1091 0 0,1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 1 0 0 0,20 1 1 0 0,7 5 10 0 0,43 13 1 0 0,-49-10-44 0 0,0-2 1 0 0,42 4-1 0 0,208-16-150 0 0,-162-1 95 0 0,125 14 952 0 0,-1 20-1425 0 0,-195-21 275 0 0,204 31-908 0 0,12 1-923 0 0,3-19 914 0 0,-138-20 1553 0 0,-1-6 0 0 0,148-24 0 0 0,136-20 1679 0 0,-319 46-1917 0 0,-1 3 0 0 0,0 5 1 0 0,151 26-1 0 0,-51 4 515 0 0,-144-28-134 0 0,94 0 1 0 0,78-16 601 0 0,-215 11-1175 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,12 5 1 0 0,2 0-45 0 0,-19-5-27 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,4 3-1 0 0,9 5-23 0 0,-4-5 27 0 0,-6-3-8 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,9 12 0 0 0,-7-10 10 0 0,-7-6 7 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-1 1 1 0 0,-4 8-247 0 0,-8-3-295 0 0,11-4-49 0 0,-3 1 1037 0 0,-19-9-16171 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24946.55">4450 7353 6535 0 0,'0'1'500'0'0,"-11"21"17130"0"0,11-21-17563 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,2 1-1 0 0,26 20-356 0 0,8 3 561 0 0,-1 2 0 0 0,47 46 0 0 0,71 65 285 0 0,-82-76-525 0 0,11 1 18 0 0,-14-10 36 0 0,-66-52-1 0 0,10 9 87 0 0,-9-8-120 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,2 3 0 0 0,1 3-39 0 0,-4 3-1 0 0,-1-10-5 0 0,0 0 6 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-2 2 0 0 0,-2 3-13 0 0,-1-1 7 0 0,-1 1-1 0 0,-15 10 1 0 0,-74 60 386 0 0,45-26-392 0 0,-2 5-68 0 0,17-17-56 0 0,15-15-115 0 0,-20 28 0 0 0,9-10-668 0 0,32-41 596 0 0,0 2-24 0 0,-1 0-272 0 0,-3 7 853 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27874.13">339 6221 12207 0 0,'-7'2'1268'0'0,"-1"-2"-868"0"0,8 0-100 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 1 1 0 0,1 28 1194 0 0,-1-26-1645 0 0,0 6 92 0 0,-1 0-1 0 0,-2 18 1 0 0,1-19 21 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 16 0 0 0,4 57 38 0 0,-10-40 0 0 0,6-37 10 0 0,-6 18-76 0 0,3-14-16 0 0,0 1-643 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28391.33">361 6215 6535 0 0,'1'-2'500'0'0,"8"-22"906"0"0,-6-1 6691 0 0,-1 8-2539 0 0,5 13-4719 0 0,-6 4-803 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,12 4 202 0 0,-1 0 1 0 0,22 4-1 0 0,8 2 228 0 0,-17-5-350 0 0,-19-4-106 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,8 4 0 0 0,11 3 1 0 0,-15-5-12 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,14 10 0 0 0,-18-11-37 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 10 0 0 0,0-2 60 0 0,1-5-149 0 0,1 0 1 0 0,-2 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-5 8 0 0 0,-7 18-507 0 0,14-33 472 0 0,-7 12-243 0 0,6-10 52 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-7 1-1 0 0,8-3-1148 0 0,-1 0-32 0 0,-3 0 574 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-9-6 1 0 0,11 8-493 0 0,-12-8 1273 0 0,-22-16 14337 0 0,37 25-13964 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 4700 0 0,-1 6-4701 0 0,2-2-152 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,6 2 1 0 0,4-1 112 0 0,0 0 0 0 0,19-2 1 0 0,69-14-588 0 0,-99 14-294 0 0,22-4-3005 0 0,-17 3-401 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28732.05">560 6555 13039 0 0,'-1'2'1006'0'0,"-6"33"-311"0"0,1 26 5087 0 0,5-45-3933 0 0,0 18-1626 0 0,1 0 1 0 0,2 0-1 0 0,2-1 0 0 0,9 45 0 0 0,-9-31-3785 0 0,-3-45 2299 0 0,-1 7-999 0 0,11-17-7281 0 0,-8 5 9091 0 0,-1 0 1 0 0,2-4-1 0 0,3-10-1939 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29064.79">694 6658 16559 0 0,'0'0'1275'0'0,"2"0"-827"0"0,18 6 59 0 0,53 16 4534 0 0,-28-6-4344 0 0,-43-16-632 0 0,12 3-2029 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29413.38">270 6715 20327 0 0,'-3'10'562'0'0,"-1"0"-1"0"0,0 0 1 0 0,-7 12-1 0 0,-4 9-7 0 0,5-10 164 0 0,6-14-428 0 0,0 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-2 10 1 0 0,-5 17 54 0 0,8-28-529 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 7 1 0 0,1-12-264 0 0,0 1-2013 0 0,1-2 2563 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,2 0-1 0 0,-2-1 26 0 0,12-1 83 0 0,88-8-313 0 0,-88 8 205 0 0,-1 1-105 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,17 8 1 0 0,7 5-2 0 0,44 29 0 0 0,-46-25 71 0 0,45 20 0 0 0,65 31 141 0 0,-129-62-73 0 0,1-2 1 0 0,-1 1-1 0 0,2-2 0 0 0,16 5 1 0 0,-28-9-291 0 0,1-1 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,4-4 0 0 0,6-6-5325 0 0,-4-1-1720 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30017.03">192 6847 12207 0 0,'-2'0'107'0'0,"0"1"0"0"0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-2 2 0 0 0,-2 4 1332 0 0,-9 7 4061 0 0,2 1-3533 0 0,-12 14-1071 0 0,17-22-767 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-8 19 1 0 0,-14 22-398 0 0,-11 24-736 0 0,37-72 471 0 0,-1 2 698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31340.43">1217 6590 5695 0 0,'0'0'12831'0'0,"3"0"-12130"0"0,44 3 1126 0 0,-21 0-1802 0 0,-1 3-25 0 0,34 13 340 0 0,-1 2-1 0 0,93 50 1 0 0,-146-68-346 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,2 9 0 0 0,-3-2 75 0 0,1-1 0 0 0,-2 0 0 0 0,1 1 0 0 0,-2-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-7 17 0 0 0,6-15-21 0 0,-2 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,-15 19 1 0 0,9-16-162 0 0,8-10 68 0 0,1 0-1 0 0,-2-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-14 7 0 0 0,14-10-363 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,-7 1-1 0 0,8-2-785 0 0,1 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-9-2 0 0 0,0-1-4148 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31678.95">1900 6598 23327 0 0,'1'14'773'0'0,"-1"0"-1"0"0,-3 22 1 0 0,0 17-539 0 0,9 62 241 0 0,1-26-1317 0 0,-7-87 472 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32016.05">2150 6637 10159 0 0,'0'0'784'0'0,"2"1"-510"0"0,5 2 819 0 0,0-1 1 0 0,0 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,10 10-1 0 0,-10-7-575 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,4 10 1 0 0,-3-5-461 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-1 20 0 0 0,0-13-61 0 0,0-9-137 0 0,-1 0-1 0 0,-3 23 1 0 0,3-35-84 0 0,1 0-64 0 0,-2 7 53 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32363.71">2636 6601 22375 0 0,'0'0'1720'0'0,"3"1"-1109"0"0,3 2-564 0 0,102 56 1271 0 0,-94-50-1270 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,15 19 0 0 0,-21-21-48 0 0,2 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,5 14 0 0 0,-8-14 60 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,-6 21-1 0 0,8-32-41 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 2 0 0 0,-13 14 30 0 0,8-7-48 0 0,6-9 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,-2 0-1 0 0,0 0-31 0 0,-1 1-74 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-6-1 0 0 0,6 1-149 0 0,1-1 113 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-2-3-1 0 0,-5-9-1298 0 0,3-1-4256 0 0,0 1-1632 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32364.71">2884 6602 10159 0 0,'0'0'784'0'0,"2"-2"-510"0"0,9-8 3358 0 0,5 7 4525 0 0,-17 14-4415 0 0,-2 2-4891 0 0,-3 7 1292 0 0,-2 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,-2 0 0 0 0,-13 21 0 0 0,-15 28 94 0 0,24-38-957 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32702.71">3191 6725 18543 0 0,'17'9'781'0'0,"0"1"0"0"0,-1 0 0 0 0,0 2 0 0 0,22 20 0 0 0,-20-16 397 0 0,41 27 0 0 0,-41-31-885 0 0,22 20-1 0 0,-11-9-561 0 0,-26-21-220 0 0,6 9-1754 0 0,-1-3-3311 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35582.97">5952 8134 20559 0 0,'-9'12'597'0'0,"-1"0"0"0"0,2 1 1 0 0,0 0-1 0 0,-9 19 0 0 0,-20 58 556 0 0,0 3-1677 0 0,21-54 538 0 0,1 2 0 0 0,3 0-1 0 0,1 0 1 0 0,-7 62 0 0 0,8-37 54 0 0,3-1-1 0 0,3 1 1 0 0,3 0-1 0 0,8 74 0 0 0,-2-103-283 0 0,1-1 0 0 0,1 1-1 0 0,3-1 1 0 0,17 45-1 0 0,-18-58 286 0 0,2-1 0 0 0,1 1-1 0 0,0-2 1 0 0,2 0-1 0 0,0 0 1 0 0,2-1 0 0 0,23 23-1 0 0,-30-34-112 0 0,1 0-1 0 0,1-1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,23 4-1 0 0,-8-4-207 0 0,0-1 0 0 0,0-1-1 0 0,1-2 1 0 0,41-4 0 0 0,-58 2 331 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1-1 0 0 0,19-8 1 0 0,-7-1 459 0 0,34-21 0 0 0,-47 25-311 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1 0 0 0,1-1 0 0 0,-2 1-1 0 0,16-24 1 0 0,41-79 733 0 0,-62 106-937 0 0,6-14 87 0 0,-1 0 0 0 0,0 0 0 0 0,-2-1 0 0 0,6-31 0 0 0,-6 13 129 0 0,3-66 1 0 0,-10 71-133 0 0,-2-1 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-2 0 1 0 0,-1 1-1 0 0,-1 0 0 0 0,-20-45 0 0 0,-82-154 415 0 0,52 118-358 0 0,47 91-165 0 0,-2 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,-36-39 0 0 0,34 46 13 0 0,0 0-1 0 0,-1 2 1 0 0,0 0-1 0 0,-29-15 1 0 0,35 20-12 0 0,-5 0 2 0 0,1 1-1 0 0,-1 1 1 0 0,-1 0-1 0 0,1 2 1 0 0,-1 0-1 0 0,-19-3 1 0 0,-2 0-10 0 0,-2 4-179 0 0,38 2 113 0 0,-12 2-15 0 0,2 0 8 0 0,-13 3-208 0 0,24-3 192 0 0,0 0-21 0 0,-3 1-148 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-7 8 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36345.06">7056 8329 15807 0 0,'4'0'363'0'0,"100"-2"986"0"0,105 3 917 0 0,306 75 3603 0 0,-412-57-5763 0 0,458 106 781 0 0,-318-40-239 0 0,-237-82-601 0 0,-3-2-51 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,5-3 0 0 0,-7 3-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0-1 0 0 0,1 0-10 0 0,1-2-83 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-4-1 0 0,-11-28-7558 0 0,2 17-164 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3445.18">4868 956 24991 0 0,'-4'8'2612'0'0,"3"-6"-2644"0"0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,0 3 0 0 0,1-1-22 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,5 4-1 0 0,3 3-188 0 0,1 0-1 0 0,0-1 1 0 0,21 14 0 0 0,-10-9-585 0 0,1 0 1 0 0,0-2-1 0 0,1 0 0 0 0,33 11 1 0 0,-46-21 50 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1-1 0 0,19-2 1 0 0,-26 1 761 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,4-5-1 0 0,-2 2 899 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,7-10 1970 0 0,-13 14-2205 0 0,1 3-618 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,-2 1-10 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-3 4-1 0 0,-7 5-63 0 0,2 1 0 0 0,-19 27 0 0 0,18-23 314 0 0,2-1 1 0 0,0 2-1 0 0,1-1 1 0 0,0 1 0 0 0,2 0-1 0 0,0 1 1 0 0,-5 23 0 0 0,11-40-228 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,1 0 12 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,7 0 0 0 0,0 0-11 0 0,-1-1-1 0 0,1 1 1 0 0,0-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,16-6-1 0 0,14-9-1558 0 0,-2-3-5185 0 0,-14 6-1012 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3071.19">5928 934 22375 0 0,'0'19'1984'0'0,"-3"-4"-1584"0"0,1 6-320 0 0,-1 1-80 0 0,0 1 80 0 0,1-3 0 0 0,1 1 0 0 0,-1 3 0 0 0,1 3-80 0 0,1-5 0 0 0,1-6 0 0 0,-1 1-6688 0 0,-1 1-1368 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3070.19">6415 957 21511 0 0,'2'3'488'0'0,"11"11"198"0"0,10 11-69 0 0,29 41 0 0 0,-49-61-519 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 11-1 0 0,0 6 195 0 0,-7 33 1 0 0,7-53-279 0 0,-4 18-134 0 0,0 0 1 0 0,-2-1-1 0 0,-13 34 0 0 0,-2-6-7423 0 0,16-37-11 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1656.51">9128 649 22375 0 0,'0'0'2331'0'0,"0"3"-2211"0"0,-9 144 2518 0 0,-1-2-3647 0 0,10-117-2716 0 0,6 39 0 0 0,-3-45-4449 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1655.51">9488 970 19119 0 0,'12'29'1696'0'0,"-10"-7"-1352"0"0,-5 8-280 0 0,0 3-64 0 0,1 5 320 0 0,-6-1 40 0 0,-6 1 16 0 0,-4 2 0 0 0,-3-1-376 0 0,-6-1 0 0 0,-7-4-80 0 0,-1-4 16 0 0,5-3-488 0 0,-2-5-96 0 0,0-6-24 0 0,3-5-4920 0 0,5-5-984 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1279.73">9037 1392 11951 0 0,'-3'-24'-144'0'0,"0"7"2429"0"0,1 0 1 0 0,2-36 0 0 0,1 47-1801 0 0,-1 0 0 0 0,2 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,5-7 0 0 0,-5 7-355 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,7-4 0 0 0,-9 6-110 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,5 3 0 0 0,135 70 298 0 0,-134-69-267 0 0,9 7-4 0 0,-1 0 1 0 0,0 2-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,-2 1-1 0 0,16 23 1 0 0,-27-36-98 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 6 0 0 0,-1 5-2394 0 0,-4 0-3421 0 0,-1-2-2179 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2710.33">7202 537 25367 0 0,'5'0'579'0'0,"65"5"150"0"0,-42-5-360 0 0,-1 2 0 0 0,1 1 0 0 0,43 11 0 0 0,-47-8-549 0 0,-1 2 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 2 0 0 0,34 21 0 0 0,-41-22-200 0 0,8 6-1345 0 0,-11-4-5160 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2709.33">7086 902 18023 0 0,'0'0'1878'0'0,"3"0"-1782"0"0,45 0 2327 0 0,152-6 363 0 0,-176 3-3480 0 0,0 0 0 0 0,0-2 1 0 0,-1-1-1 0 0,0 0 0 0 0,0-2 1 0 0,27-13-1 0 0,-40 16-301 0 0,-1 0 0 0 0,14-11 0 0 0,1-7-4699 0 0,-13 9 638 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2348.11">7650 662 12207 0 0,'0'0'3042'0'0,"0"3"-1098"0"0,4 32-450 0 0,-1-1 0 0 0,-2 0 0 0 0,-1 1 0 0 0,-8 57 0 0 0,-3 6-2060 0 0,5-27-660 0 0,-21 89 1 0 0,22-144 1048 0 0,0 0 0 0 0,-1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-14 18 0 0 0,19-27 324 0 0,-1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-9 5 0 0 0,10-7-27 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-7-3 0 0 0,8 2-84 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-2-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-5 1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,4-11-1 0 0,-5 13-15 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,7-1 0 0 0,31-6-476 0 0,99-25 2046 0 0,-74 9-3440 0 0,-48 17-1612 0 0,26-17 0 0 0,-28 13-4146 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1986.25">8070 762 24047 0 0,'-16'10'528'0'0,"10"-1"112"0"0,1 4 16 0 0,0 1 16 0 0,-3 2-536 0 0,0 3-136 0 0,4 0 0 0 0,-1 3 0 0 0,2 2 136 0 0,1 2 0 0 0,2-3 0 0 0,5 3 0 0 0,1-2-376 0 0,5-2-80 0 0,2-3-8 0 0,3-5-6744 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1985.25">8472 973 18023 0 0,'-25'39'1379'0'0,"-27"58"-1"0"0,44-81-919 0 0,-6 11 387 0 0,1 1 0 0 0,1 1 1 0 0,1 0-1 0 0,-10 49 0 0 0,20-72-770 0 0,0-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,5 3 0 0 0,-4-3-71 0 0,1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-2 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,13 1-1 0 0,30-4-1237 0 0,-18-3-5948 0 0,-11 1-851 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5189.54">2255 0 18023 0 0,'-3'1'1387'0'0,"2"1"-1345"0"0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-2 3-1 0 0,-11 44 613 0 0,9-33-198 0 0,-60 200 1966 0 0,53-184-2259 0 0,-11 35 327 0 0,-89 282 343 0 0,93-288-834 0 0,3 0 0 0 0,-8 67 0 0 0,22-116-181 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,1 0 1 0 0,4 17 0 0 0,-6-27-502 0 0,0 0 540 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4677.69">2299 89 18023 0 0,'-1'10'247'0'0,"1"0"0"0"0,-1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,-4 13 0 0 0,3-10-103 0 0,1 1 0 0 0,1-1 1 0 0,-1 26-1 0 0,-1 0 396 0 0,1-7-220 0 0,1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,9 52 0 0 0,-5-59-265 0 0,1 0-1 0 0,2 0 1 0 0,0-1-1 0 0,2-1 1 0 0,0 1 0 0 0,20 32-1 0 0,-24-45-49 0 0,2-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,2 0 1 0 0,-1-1-1 0 0,14 10 1 0 0,-17-13-21 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,10-2 0 0 0,4-3-169 0 0,-1-1-1 0 0,1-1 0 0 0,-1 0 0 0 0,-1-2 0 0 0,19-12 0 0 0,83-65 632 0 0,-15 9 38 0 0,-97 73-392 0 0,1-1 0 0 0,0 1-1 0 0,18-6 1 0 0,-23 9-43 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,5 1 1 0 0,11 2 197 0 0,-14-3-153 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,6 4 0 0 0,-5-2-39 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,5 10 1 0 0,-5-6-34 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,2 17 1 0 0,-2 8-11 0 0,-2 0 0 0 0,-2 0 0 0 0,-11 74-1 0 0,-4-14-42 0 0,4-23-411 0 0,-5 120 1 0 0,19-165-4419 0 0,-2-26 2628 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4158.82">3410 1222 20559 0 0,'-1'-4'244'0'0,"0"-1"-1"0"0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-4-1 0 0,3-8 78 0 0,11-24 0 0 0,-3 8 338 0 0,-1-1-481 0 0,1 1 0 0 0,33-58 0 0 0,167-231-835 0 0,-192 293 622 0 0,1 1 1 0 0,37-37-1 0 0,-51 58 35 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 2 0 0 0,18-8 0 0 0,-23 11 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4 4 0 0 0,5 3 0 0 0,-1 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,8 15 0 0 0,-1 3 0 0 0,-1 1 0 0 0,14 35 0 0 0,4 12 210 0 0,-17-44-67 0 0,-3 0 1 0 0,0 0 0 0 0,10 48-1 0 0,21 127-143 0 0,-43-201-245 0 0,3 22-407 0 0,-4-11-6384 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3819.27">3925 648 22375 0 0,'0'0'2509'0'0,"4"1"-2191"0"0,108 39 1066 0 0,-109-38-1381 0 0,72 22-1387 0 0,87 42 1 0 0,-157-63 1280 0 0,38 17-6977 0 0,-23-13-96 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="368497.1">3671 1485 12583 0 0,'0'0'603'0'0,"2"0"-259"0"0,25-1 73 0 0,9-4 307 0 0,23-2 4316 0 0,-18 3-3747 0 0,-26 2-2392 0 0,0 0-3917 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369263.78">3802 1566 20847 0 0,'0'0'1012'0'0,"6"10"244"0"0,-2-1-1177 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 13 0 0 0,-3-1 112 0 0,-1 1 0 0 0,0-1-1 0 0,-14 46 1 0 0,-3-10-191 0 0,16-46-794 0 0,-1 0 0 0 0,0 0 0 0 0,-9 13 0 0 0,2-1-914 0 0,11-23 383 0 0,-5 3-700 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369616.71">3703 1929 10159 0 0,'0'0'8674'0'0,"2"0"-7526"0"0,81-16 3134 0 0,-30 1-4282 0 0,-19 8-1323 0 0,-16 8-5865 0 0,-16 0 6011 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="369972.76">4185 1553 18023 0 0,'0'0'1387'0'0,"0"3"-896"0"0,1 6-265 0 0,-1-1 255 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-4 11 0 0 0,-4 21-216 0 0,8-31-335 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,-7 9 1 0 0,-6 15-1493 0 0,16-31 603 0 0,-1 2-610 0 0,0 0 698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370343.14">4220 1564 12207 0 0,'0'0'943'0'0,"2"1"-618"0"0,16 10-89 0 0,-16-10 798 0 0,9 12 1772 0 0,-7-8-2512 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,-1 6 1 0 0,7 31 600 0 0,-4-35-752 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,6 9 0 0 0,-7-12-63 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,7 2 1 0 0,-10-4-56 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,3-1 1 0 0,11-4 119 0 0,-14 5-123 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-3 0 0 0,19-30 66 0 0,-12 16-101 0 0,4-3-10 0 0,-2-1-1 0 0,0 0 0 0 0,-2-1 1 0 0,-1 0-1 0 0,8-26 1 0 0,-18 48-107 0 0,1 0-72 0 0,6-21-1032 0 0,-7 21-387 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="370690.03">4917 1503 10159 0 0,'2'1'4818'0'0,"1"4"-1989"0"0,8 10 1261 0 0,-9-12-3961 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 5 0 0 0,-1 5 154 0 0,0-7-265 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-2 6 0 0 0,-23 110 850 0 0,4-17-530 0 0,16-66-249 0 0,9-20-141 0 0,4-6-160 0 0,-1-2-844 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371383.95">5204 1558 6535 0 0,'0'0'17069'0'0,"3"1"-16637"0"0,7 0-352 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,1 1-1 0 0,-1-2 1 0 0,17-6-1 0 0,-19 7-94 0 0,0 1 0 0 0,0 0 0 0 0,15 0 1 0 0,-11 0-123 0 0,-4 1-324 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,16 4 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="371771.19">5432 1526 18023 0 0,'0'0'1387'0'0,"-1"3"-896"0"0,-7 12-43 0 0,1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 26 1 0 0,5-28-398 0 0,0 0-1 0 0,1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,9 22 1 0 0,-11-31-52 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,3 2-1 0 0,-1-1-28 0 0,-3-2-144 0 0,0 0-89 0 0,10 9 375 0 0,18 10-14720 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="373474.22">5421 1669 18543 0 0,'-5'-2'1552'0'0,"3"1"-1445"0"0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-5 0 0 0 0,12 3 21 0 0,-6-2-119 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 0 1 0 0,68 7 767 0 0,-66-7-663 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,7 2 1 0 0,8 2 82 0 0,139 5 411 0 0,-145-9-566 0 0,54 7 294 0 0,-54-5-319 0 0,28 3-16 0 0,-2-4 0 0 0,-16-3 0 0 0,-18 2-77 0 0,-1-1-168 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,3-3 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="373811.7">5968 1598 20847 0 0,'0'0'2091'0'0,"1"2"-1914"0"0,1 13 154 0 0,2-1 0 0 0,0 1 0 0 0,7 15-1 0 0,-4-12 11 0 0,7 32-1 0 0,-12-41-338 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-7 11 0 0 0,0-3 24 0 0,-1 0-1 0 0,0-1 1 0 0,-2 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-21 14-1 0 0,29-24 8 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,-12 5 1 0 0,17-8-160 0 0,-1 1-490 0 0,-9 3 465 0 0,-5-4-14695 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11394,21 +12653,21 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">368 1 23239 0 0,'0'0'4117'0'0,"9"0"-3658"0"0,-5 17-391 0 0,-1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-2 19 1 0 0,1-17-48 0 0,-1 9 116 0 0,0 0 0 0 0,-2 0 0 0 0,-2 0 1 0 0,0 0-1 0 0,-2-1 0 0 0,-15 41 0 0 0,16-55 8 0 0,-15 23 0 0 0,13-24-106 0 0,-13 28 0 0 0,21-41-41 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,8-7-254 0 0,1-14-325 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="506.22">317 699 24991 0 0,'0'1'100'0'0,"-1"-1"0"0"0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0-53 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,-5-5-125 0 0,0 1 0 0 0,1-1 0 0 0,-11-13 0 0 0,18 19 91 0 0,-4-3-47 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-8 0 0 0,0 10 9 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,5-2-1 0 0,-1 1 78 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,1-1-1 0 0,9 2 1 0 0,-13-1-30 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,6 7-1 0 0,-9-8-18 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 4 0 0 0,0-1 11 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-3 4 0 0 0,-3 4 28 0 0,0-1 0 0 0,-1 0 0 0 0,-15 18 0 0 0,15-21-263 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-13 2-1 0 0,16-5-5798 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2681.77">279 1661 13039 0 0,'-19'12'3014'0'0,"-10"2"3262"0"0,23-12-5888 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-6-1 0 0 0,8 0-335 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-4-5 0 0 0,4 4-21 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,2 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,2 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,9-5 0 0 0,-6 5-16 0 0,0-1 0 0 0,1 1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,8 4 1 0 0,-15-5-27 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 3-1 0 0,1 0 9 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,-2 3 0 0 0,-2 5 94 0 0,0-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-9 14 0 0 0,-12 14-213 0 0,28-37-143 0 0,-3 0-163 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3668.29">193 1753 18543 0 0,'0'0'1932'0'0,"-14"17"4140"0"0,13-17-5996 0 0,0 24 228 0 0,-1 54 144 0 0,0-13-357 0 0,-4 89 91 0 0,-10 83 513 0 0,8-186-368 0 0,-20 66-1 0 0,14-60-261 0 0,12-43-59 0 0,-1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-13 22 0 0 0,15-31-86 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-10 5 0 0 0,13-8-1 0 0,1-1-11 0 0,0 0 80 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-6-4-281 0 0,-3-7-614 0 0,6 6-655 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="177437.29">1525 1269 24991 0 0,'-36'174'500'0'0,"13"-69"-10144"0"0,17-78 2804 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="177769.29">1371 2200 5263 0 0,'-4'45'112'0'0,"1"-13"24"0"0,0 3 8 0 0,-1 0 16 0 0,-1 1-160 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="177770.29">1313 2842 18543 0 0,'-3'62'3604'0'0,"-18"97"0"0"0,13-123-3341 0 0,2 1-1 0 0,1-1 0 0 0,1 1 1 0 0,3 52-1 0 0,3-74 133 0 0,0-1-1293 0 0,-2-5-6201 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="178247.61">1541 1596 23959 0 0,'-10'22'656'0'0,"1"2"1"0"0,0-1-1 0 0,2 1 0 0 0,-5 35 0 0 0,-9 102-640 0 0,11-59-9 0 0,-66 366-1575 0 0,50-313 1407 0 0,6 0 463 0 0,14-94-245 0 0,-3-1 0 0 0,-28 107 0 0 0,34-160-460 0 0,1 0-1 0 0,-1 0 1 0 0,-7 11 0 0 0,-1-6-7033 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179003.16">334 2113 23959 0 0,'0'0'2405'0'0,"14"-12"-2067"0"0,4-1-304 0 0,-5 2 29 0 0,1 2 0 0 0,22-13 1 0 0,-30 19-53 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 1 1 0 0,11 0-1 0 0,32 5 371 0 0,1 2 0 0 0,70 21 0 0 0,32 6 304 0 0,-142-33-598 0 0,83 10-92 0 0,-84-10-201 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,20-6 0 0 0,-28 7 109 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,1-7-7327 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179520.97">1037 1985 21943 0 0,'3'4'497'0'0,"0"1"1"0"0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,8 5 1 0 0,-1 0-103 0 0,32 24 249 0 0,32 24-196 0 0,-68-50-441 0 0,0 1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,4 11 1 0 0,-8-16 23 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-4 2-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0-1 0 0 0,-13 3-1 0 0,-9-3-410 0 0,-32-1 0 0 0,22-1-7959 0 0,24 0-303 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179878.22">285 2475 22375 0 0,'0'0'1720'0'0,"15"4"-912"0"0,21 0-267 0 0,-1-2 0 0 0,1-1 1 0 0,62-6-1 0 0,-62 2-386 0 0,34-1-155 0 0,86 6 0 0 0,-71 6 326 0 0,134 30 0 0 0,-196-32-208 0 0,-14-2-78 0 0,1-1 0 0 0,17 2 1 0 0,-26-5-312 0 0,8-2-4323 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180226.9">1179 2428 21855 0 0,'0'0'4709'0'0,"10"12"-4247"0"0,-7-8-396 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,1 9 0 0 0,-1 3 190 0 0,2 26 0 0 0,-4-34-218 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-2-1 0 0,-8 15 1 0 0,6-14 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,-13 6 1 0 0,0-1-688 0 0,1-1 1 0 0,-1-1-1 0 0,-37 7 0 0 0,48-13-13 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-17-5-1 0 0,15 2-7869 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180653.72">232 2865 23351 0 0,'0'0'2440'0'0,"5"5"-585"0"0,-4-4-1823 0 0,15 0 113 0 0,-6-2-180 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,13-6 0 0 0,-12 5 56 0 0,1 0 0 0 0,0 1 0 0 0,23-6 0 0 0,-20 9 17 0 0,0 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 1-1 0 0,26 7 1 0 0,-4 1 78 0 0,51 23 0 0 0,1 8-126 0 0,-52-22-15 0 0,1-3 0 0 0,1 0-1 0 0,61 15 1 0 0,-93-30-38 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,10-6-1 0 0,-8 4-1918 0 0,0-1-1 0 0,0 0 0 0 0,7-7 0 0 0,-3 3-6261 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180985.33">1072 2813 22375 0 0,'-12'47'4745'0'0,"11"-44"-4753"0"0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,2 2-1 0 0,-2-3-77 0 0,-1-1 14 0 0,1 0 4 0 0,1 3 43 0 0,1 0-39 0 0,-3-3-27 0 0,1-1 34 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-139 0 0,0-11-1551 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="181614.44">1063 2911 25487 0 0,'-2'7'2327'0'0,"1"-4"-2316"0"0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 4-1 0 0,1-5 28 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,3 1-1 0 0,8 5 40 0 0,-9-4-29 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,4 6 0 0 0,-7-10-42 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 3-1 0 0,-4 5 6 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,-18 14-1 0 0,0-2 22 0 0,-33 19 1 0 0,39-27-265 0 0,-2 0 0 0 0,-31 11 0 0 0,43-19-96 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-17 0 0 0 0,20-2-6052 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">369 1 23239 0 0,'0'0'4117'0'0,"9"0"-3658"0"0,-5 17-391 0 0,-1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,-2 18 1 0 0,1-16-48 0 0,0 8 116 0 0,-2 1 0 0 0,-1 0 0 0 0,-1-1 1 0 0,-2 0-1 0 0,-1 0 0 0 0,-15 40 0 0 0,16-54 8 0 0,-15 23 0 0 0,13-25-106 0 0,-13 28 0 0 0,21-40-41 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,8-5-254 0 0,1-15-325 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="506.22">318 688 24991 0 0,'0'1'100'0'0,"-1"0"0"0"0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,0-2-53 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-2-1 1 0 0,-3-4-125 0 0,-1-1 0 0 0,1 1 0 0 0,-11-14 0 0 0,18 19 91 0 0,-4-3-47 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-7 0 0 0,-1 8 9 0 0,1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 2-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,5-1-1 0 0,-1 0 78 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,-1-1-1 0 0,10 2 1 0 0,-13-1-30 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,6 7-1 0 0,-8-9-18 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 4 0 0 0,-1-1 11 0 0,0 0 1 0 0,1 0-1 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 4 0 0 0,-2 4 28 0 0,-2-1 0 0 0,1 0 0 0 0,-17 17 0 0 0,16-20-263 0 0,0 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,1-1 1 0 0,-13 3-1 0 0,15-5-5798 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2681.77">280 1635 13039 0 0,'-19'13'3014'0'0,"-10"1"3262"0"0,23-12-5888 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-7-1 0 0 0,10 1-335 0 0,-1-2-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-4-6 0 0 0,4 4-21 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,9-4 0 0 0,-6 3-16 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 2 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,8 3 1 0 0,-15-4-27 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 3-1 0 0,1 0 9 0 0,-1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-3 5 0 0 0,-2 3 94 0 0,0 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-9 13 0 0 0,-12 15-213 0 0,28-38-143 0 0,-4 2-163 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3668.29">194 1726 18543 0 0,'0'0'1932'0'0,"-15"17"4140"0"0,15-17-5996 0 0,-1 23 228 0 0,-2 54 144 0 0,2-13-357 0 0,-6 88 91 0 0,-8 82 513 0 0,6-185-368 0 0,-19 67-1 0 0,15-60-261 0 0,10-42-59 0 0,1 0 1 0 0,-2 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,-12 21 0 0 0,13-30-86 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-10 5 0 0 0,13-9-1 0 0,1 0-11 0 0,0 1 80 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-6-5-281 0 0,-3-6-614 0 0,6 7-655 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="177437.29">1530 1249 24991 0 0,'-37'171'500'0'0,"15"-67"-10144"0"0,15-77 2804 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="177769.29">1375 2166 5263 0 0,'-3'45'112'0'0,"0"-14"24"0"0,0 3 8 0 0,-1 1 16 0 0,-2 0-160 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="177770.29">1317 2799 18543 0 0,'-3'61'3604'0'0,"-18"95"0"0"0,13-120-3341 0 0,2 0-1 0 0,1 0 0 0 0,2 0 1 0 0,1 51-1 0 0,4-71 133 0 0,0-3-1293 0 0,-2-4-6201 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="178247.61">1546 1571 23959 0 0,'-10'23'656'0'0,"1"-1"1"0"0,0 2-1 0 0,2-1 0 0 0,-6 35 0 0 0,-7 101-640 0 0,9-58-9 0 0,-64 360-1575 0 0,48-310 1407 0 0,7 2 463 0 0,14-93-245 0 0,-2-1 0 0 0,-30 106 0 0 0,36-158-460 0 0,-1 0-1 0 0,0-1 1 0 0,-7 13 0 0 0,-1-7-7033 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179003.16">335 2080 23959 0 0,'0'0'2405'0'0,"15"-11"-2067"0"0,2-2-304 0 0,-4 3 29 0 0,1 0 0 0 0,22-11 1 0 0,-30 18-53 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,11 1-1 0 0,33 6 371 0 0,0 1 0 0 0,70 21 0 0 0,33 4 304 0 0,-143-30-598 0 0,83 9-92 0 0,-84-11-201 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,20-6 0 0 0,-29 7 109 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1-2 0 0 0,2-7-7327 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179520.97">1040 1954 21943 0 0,'3'5'497'0'0,"1"-1"1"0"0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,6 5 1 0 0,1 0-103 0 0,31 23 249 0 0,31 24-196 0 0,-66-48-441 0 0,-1-1-1 0 0,0 1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,4 10 1 0 0,-8-15 23 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-4 3-1 0 0,1-2 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-11 1-1 0 0,-10-1-410 0 0,-33-2 0 0 0,24-2-7959 0 0,23 1-303 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179878.22">286 2437 22375 0 0,'0'0'1720'0'0,"15"4"-912"0"0,21 0-267 0 0,-1-2 0 0 0,1-1 1 0 0,62-6-1 0 0,-61 3-386 0 0,32-3-155 0 0,89 7 0 0 0,-74 6 326 0 0,136 29 0 0 0,-197-30-208 0 0,-13-4-78 0 0,0 0 0 0 0,17 2 1 0 0,-26-5-312 0 0,8-2-4323 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180226.9">1182 2391 21855 0 0,'0'0'4709'0'0,"11"11"-4247"0"0,-8-6-396 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1 7 0 0 0,-1 3 190 0 0,2 27 0 0 0,-4-34-218 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-8 13 1 0 0,5-13 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1-1 0 0,-14 6 1 0 0,2-1-688 0 0,-1-2 1 0 0,0 0-1 0 0,-37 8 0 0 0,48-14-13 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-17-5-1 0 0,15 3-7869 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180653.72">233 2821 23351 0 0,'0'0'2440'0'0,"5"5"-585"0"0,-4-4-1823 0 0,15 0 113 0 0,-6-2-180 0 0,0 0 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,13-7 0 0 0,-12 4 56 0 0,1 2 0 0 0,0-1 0 0 0,24-4 0 0 0,-22 8 17 0 0,1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1-1 0 0,25 6 1 0 0,-5 2 78 0 0,53 23 0 0 0,0 7-126 0 0,-51-21-15 0 0,0-3 0 0 0,0-1-1 0 0,63 16 1 0 0,-94-30-38 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,11-5-1 0 0,-9 2-1918 0 0,0 1-1 0 0,0-1 0 0 0,7-7 0 0 0,-3 3-6261 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180985.33">1075 2770 22375 0 0,'-12'47'4745'0'0,"12"-45"-4753"0"0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 4-1 0 0,-1-4-77 0 0,0-1 14 0 0,-1-1 4 0 0,3 4 43 0 0,-1 0-39 0 0,-1-3-27 0 0,-1-1 34 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-139 0 0,-1-11-1551 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="181614.44">1067 2866 25487 0 0,'-3'7'2327'0'0,"2"-4"-2316"0"0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 3-1 0 0,1-3 28 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,5 1-1 0 0,7 4 40 0 0,-9-3-29 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,5 7 0 0 0,-8-10-42 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-3 3-1 0 0,-3 5 6 0 0,0-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,-17 14-1 0 0,-1-3 22 0 0,-33 20 1 0 0,38-27-265 0 0,-1-1 0 0 0,-31 12 0 0 0,43-19-96 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0-1 1 0 0,0 0-1 0 0,-17 0 0 0 0,21-2-6052 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11632,7 +12891,7 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1542 0 9359 0 0,'-9'4'196'0'0,"0"0"-1"0"0,-1 0 0 0 0,1-1 0 0 0,-15 3 1 0 0,-21 7 830 0 0,-28 13 1930 0 0,37-14-1653 0 0,1 1-1 0 0,0 2 1 0 0,-56 33 0 0 0,66-32-926 0 0,-47 34 791 0 0,63-42-1059 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 2 0 0 0,-9 14 0 0 0,-32 48-123 0 0,24-37-180 0 0,-21 40 1 0 0,-114 269-758 0 0,38 16-156 0 0,92-261 790 0 0,-75 310-1475 0 0,28 9-74 0 0,14-71 188 0 0,4-20-26 0 0,-28 175 246 0 0,69-389 1406 0 0,-33 314-27 0 0,40-318 76 0 0,-13 346 464 0 0,20-331-282 0 0,-13 472-619 0 0,11-267 385 0 0,2-60 502 0 0,-10 320-1232 0 0,-4 37 306 0 0,-1 425 922 0 0,19-959-196 0 0,10 271 585 0 0,-1-82-387 0 0,8 204 211 0 0,-3-217-321 0 0,9 112-15 0 0,-18-311-308 0 0,51 502 134 0 0,-29-359-80 0 0,28 204 22 0 0,-32-260-130 0 0,50 323-410 0 0,-49-336 65 0 0,150 810-202 0 0,-164-906 760 0 0,149 602 3232 0 0,-129-549-2521 0 0,60 171 1582 0 0,135 254-833 0 0,-145-333-1494 0 0,135 236-1 0 0,-159-331 154 0 0,87 143 737 0 0,-12-20-320 0 0,-27-48-203 0 0,-69-110-301 0 0,-26-44-448 0 0,0-1-1 0 0,2 0 1 0 0,0-1-1 0 0,19 23 1 0 0,-14-25-5084 0 0,-1-4-1862 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1546 0 9359 0 0,'-9'4'196'0'0,"0"0"-1"0"0,-1 0 0 0 0,1-1 0 0 0,-15 3 1 0 0,-21 7 830 0 0,-28 12 1930 0 0,37-13-1653 0 0,0 1-1 0 0,1 1 1 0 0,-56 34 0 0 0,66-33-926 0 0,-47 35 791 0 0,63-43-1059 0 0,0 1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-10 15 0 0 0,-30 46-123 0 0,23-35-180 0 0,-22 39 1 0 0,-113 264-758 0 0,38 17-156 0 0,91-258 790 0 0,-73 306-1475 0 0,26 7-74 0 0,15-68 188 0 0,4-21-26 0 0,-28 174 246 0 0,69-384 1406 0 0,-34 310-27 0 0,41-314 76 0 0,-13 340 464 0 0,20-325-282 0 0,-13 465-619 0 0,11-263 385 0 0,2-60 502 0 0,-10 316-1232 0 0,-4 35 306 0 0,-1 420 922 0 0,19-945-196 0 0,10 268 585 0 0,-1-82-387 0 0,8 201 211 0 0,-2-213-321 0 0,7 110-15 0 0,-16-306-308 0 0,49 494 134 0 0,-28-354-80 0 0,29 202 22 0 0,-33-256-130 0 0,50 317-410 0 0,-49-331 65 0 0,150 798-202 0 0,-164-892 760 0 0,150 593 3232 0 0,-130-540-2521 0 0,60 167 1582 0 0,135 251-833 0 0,-144-328-1494 0 0,134 232-1 0 0,-159-326 154 0 0,88 142 737 0 0,-13-21-320 0 0,-27-47-203 0 0,-69-108-301 0 0,-26-44-448 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,20 23 1 0 0,-15-25-5084 0 0,-1-5-1862 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11735,7 +12994,7 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2105 1 13039 0 0,'-3'3'117'0'0,"-1"-1"0"0"0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-8 1 0 0 0,-23 7 920 0 0,25-5-598 0 0,-4 1 306 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-24 17 0 0 0,21-11-429 0 0,0 1 1 0 0,1 1 0 0 0,1 1 0 0 0,-15 18 0 0 0,7-5-234 0 0,7-10-16 0 0,-21 35 1 0 0,15-17-21 0 0,-100 187 52 0 0,79-136-296 0 0,-41 92-48 0 0,-62 164 264 0 0,108-251 72 0 0,-87 218 249 0 0,-6 21 165 0 0,33-86-1 0 0,55-139-291 0 0,-81 275 246 0 0,75-216-350 0 0,-165 700-34 0 0,178-704-186 0 0,-24 132-69 0 0,-32 204 164 0 0,-32 227-456 0 0,57-171 385 0 0,18 3 320 0 0,35-393-243 0 0,12-137 10 0 0,-41 635 0 0 0,29 50 192 0 0,24-96 191 0 0,-2-329-142 0 0,60 834-68 0 0,-39-756-162 0 0,137 1183 948 0 0,-127-1266-796 0 0,45 277 43 0 0,-83-548-205 0 0,92 485 66 0 0,20-4 66 0 0,-19-164-133 0 0,159 370-1 0 0,-86-354-79 0 0,-165-341 80 0 0,15 30-2 0 0,1-2 0 0 0,2 0 0 0 0,2-1 0 0 0,0-1 0 0 0,38 37 0 0 0,-55-61-93 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,11 1 0 0 0,-17-2-171 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0-3-1 0 0,14-37-6909 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2100 1 13039 0 0,'-3'3'117'0'0,"-1"-1"0"0"0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,-7 0 0 0 0,-22 8 920 0 0,24-5-598 0 0,-5 1 306 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-24 17 0 0 0,21-11-429 0 0,1 1 1 0 0,0 0 0 0 0,0 1 0 0 0,-14 19 0 0 0,8-6-234 0 0,6-9-16 0 0,-21 35 1 0 0,15-18-21 0 0,-100 184 52 0 0,79-133-296 0 0,-41 90-48 0 0,-61 162 264 0 0,107-248 72 0 0,-86 215 249 0 0,-7 21 165 0 0,33-85-1 0 0,54-136-291 0 0,-79 270 246 0 0,74-213-350 0 0,-164 689-34 0 0,177-692-186 0 0,-24 129-69 0 0,-32 201 164 0 0,-32 224-456 0 0,58-169 385 0 0,17 3 320 0 0,35-386-243 0 0,12-135 10 0 0,-41 624 0 0 0,29 49 192 0 0,24-93 191 0 0,-2-325-142 0 0,60 821-68 0 0,-40-743-162 0 0,138 1163 948 0 0,-127-1246-796 0 0,45 274 43 0 0,-82-541-205 0 0,90 479 66 0 0,21-5 66 0 0,-19-161-133 0 0,158 364-1 0 0,-86-349-79 0 0,-164-335 80 0 0,15 29-2 0 0,2 0 0 0 0,1-2 0 0 0,1 0 0 0 0,1-2 0 0 0,38 37 0 0 0,-55-60-93 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,13 1 0 0 0,-19-2-171 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,1-5-1 0 0,13-35-6909 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -11766,23 +13025,23 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">188 1658 10999 0 0,'-2'2'85'0'0,"0"0"0"0"0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-5 0 0 0 0,4 0 164 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-6 3 0 0 0,-5 5 1483 0 0,10-8-1378 0 0,1 0 1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 6 0 0 0,-9 37 52 0 0,2 2 0 0 0,-3 66 0 0 0,7 100-293 0 0,4-76 440 0 0,-2-11-168 0 0,-5 126 244 0 0,2 31-107 0 0,5-139-302 0 0,17 378-61 0 0,-13-476-181 0 0,-2-23-55 0 0,1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,9 30-1 0 0,-12-51 13 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 6-1 0 0,0 4-7189 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="522.21">202 2120 16559 0 0,'45'233'1766'0'0,"-10"-38"-782"0"0,-20-122-74 0 0,29 120 1239 0 0,-31-147-1925 0 0,2-1-1 0 0,22 48 0 0 0,-30-79-185 0 0,0 0 1 0 0,1 0-1 0 0,0-1 0 0 0,1-1 1 0 0,1 1-1 0 0,13 12 0 0 0,-19-20-34 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,11 1 0 0 0,-12-2-37 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,7-7-1 0 0,-5 3-54 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,5-9 0 0 0,34-66-475 0 0,4-9 248 0 0,47-131 148 0 0,-5 18 544 0 0,-67 154-67 0 0,34-56 1 0 0,-55 103-297 0 0,8-12 142 0 0,0-1 1 0 0,1 1-1 0 0,24-26 0 0 0,-30 36-136 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,8 0 1 0 0,2 5-19 0 0,-10 0-4 0 0,1 1-1 0 0,-1-1 0 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,5 8-1 0 0,34 50 22 0 0,-30-39 39 0 0,5 9 215 0 0,21 50-1 0 0,-10-19-75 0 0,-15-30-154 0 0,-3 1 0 0 0,13 48 1 0 0,-17-53 14 0 0,10 44 405 0 0,17 150 0 0 0,-21-110-210 0 0,4 52-56 0 0,-3 181 0 0 0,-16-279-107 0 0,2 56-102 0 0,-1-79-173 0 0,-1-29 30 0 0,0 0 0 0 0,1-1 1 0 0,4 19-1 0 0,1-2-1586 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1132.28">1901 4338 15199 0 0,'2'-8'283'0'0,"0"3"-154"0"0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-8 1 0 0,-3-10-105 0 0,-1-2 382 0 0,-3-46 0 0 0,10-270 3294 0 0,31-12-2859 0 0,-8 123-179 0 0,6 21-123 0 0,-9 79-264 0 0,54-234-76 0 0,-71 342-183 0 0,15-62 442 0 0,42-113 0 0 0,-46 156-346 0 0,-11 25-66 0 0,1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,13-20-1 0 0,-4 9-46 0 0,-13 21 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,6-2 0 0 0,4 2 0 0 0,-10 3 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,3 4 0 0 0,6 9 15 0 0,0 1 0 0 0,-2 0 0 0 0,15 28 0 0 0,-6-10 13 0 0,-12-21 43 0 0,-1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,-1 0 0 0 0,6 27-1 0 0,-5-21-2 0 0,16 40-1 0 0,4 8-146 0 0,34 176 2 0 0,-26-114 140 0 0,57 204-63 0 0,-69-244-12 0 0,-8-26-47 0 0,-4-16 212 0 0,7 85 0 0 0,-9-55-86 0 0,3 187-42 0 0,-1-23-902 0 0,-10-206-1417 0 0,-12-50-4860 0 0,-2-4 374 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1542.39">2310 3040 18543 0 0,'0'0'1932'0'0,"-5"18"-1049"0"0,6-14-646 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,4 3 1 0 0,6 4-33 0 0,-7-7-181 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,8-3 0 0 0,0 0-43 0 0,-1-1 1 0 0,1-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,1-2 1 0 0,18-13-1 0 0,20-17-407 0 0,-2-3 0 0 0,-2-2 0 0 0,65-75 0 0 0,-82 83-5383 0 0,-1 1-1886 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2459.72">4050 3243 19119 0 0,'0'0'1994'0'0,"-12"15"-143"0"0,10-14-1690 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-1 0 0 0,-36-10 151 0 0,16 3-228 0 0,-9 0-173 0 0,0 2-1 0 0,-38-2 1 0 0,56 8 54 0 0,0-1 0 0 0,0 2 1 0 0,0 0-1 0 0,1 2 0 0 0,-1-1 0 0 0,-27 10 0 0 0,35-9 35 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-9 7 0 0 0,-39 42 0 0 0,51-49 0 0 0,-4 5-8 0 0,1 1-1 0 0,0 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-7 21 1 0 0,2-7-6 0 0,5-7 14 0 0,9-13 0 0 0,-1-3 0 0 0,-1 9-3 0 0,0-10-5 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,1 3-1 0 0,7 9-117 0 0,-3-2 10 0 0,1 0 1 0 0,10 11-1 0 0,54 63-2 0 0,-50-60 307 0 0,8 13 102 0 0,2-2 1 0 0,1-1 0 0 0,69 56-1 0 0,-84-77-278 0 0,-2 0-1 0 0,1 1 1 0 0,24 32-1 0 0,-33-39-35 0 0,66 66 23 0 0,-62-64 5 0 0,-8-7-14 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,2 6-1 0 0,-2-6 16 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,-1 4-1 0 0,-9 18 43 0 0,10-20-9 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-5 6 0 0 0,1-2 186 0 0,-1-1-1 0 0,-1 1 1 0 0,1-2-1 0 0,-12 10 1 0 0,-1-2 16 0 0,13-9-337 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-12 3 0 0 0,2-2 212 0 0,-1-2 1 0 0,0 0 0 0 0,0-2 0 0 0,-34-1-1 0 0,16 0-153 0 0,26 0-34 0 0,-7-1-23 0 0,5 3 69 0 0,13-1-5 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,0 5-155 0 0,-1 0 1 0 0,1 0-1 0 0,-1 10 0 0 0,1-7 21 0 0,2-2 89 0 0,-1-1 0 0 0,1 0 0 0 0,1 1 0 0 0,1 11 0 0 0,1 6 76 0 0,-2-19 2 0 0,0 0 0 0 0,0-1 0 0 0,5 15 0 0 0,-6-20 81 0 0,10 11 262 0 0,-1-9-385 0 0,-7-4 27 0 0,7-1-43 0 0,-6-1 62 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2-3-1 0 0,14-43 3 0 0,-12 32-15 0 0,-4 10-30 0 0,-3-11-158 0 0,-1-16 370 0 0,-3 34-25 0 0,1 4-152 0 0,2 6-3 0 0,1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 19 1 0 0,10 51-198 0 0,-6-42 188 0 0,-3-27 14 0 0,0 0-1 0 0,1 0 0 0 0,0-1 1 0 0,3 12-1 0 0,9 26-600 0 0,-13-46-764 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3436.66">277 0 20327 0 0,'0'0'1567'0'0,"0"3"-1014"0"0,2 27-200 0 0,2-1 0 0 0,1 0 0 0 0,10 32-1 0 0,-9-40-280 0 0,33 116 253 0 0,-32-118-341 0 0,1-1 0 0 0,1 1 0 0 0,0-2 0 0 0,23 34 0 0 0,-20-36 14 0 0,-9-9-16 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,11 5 1 0 0,-9-6-322 0 0,0 0 0 0 0,1-1 0 0 0,11 2 1 0 0,10-2-5437 0 0,-3-3-1468 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3799.16">947 491 13039 0 0,'0'0'4912'0'0,"-1"2"-3708"0"0,-9 7-446 0 0,-1-1 0 0 0,-22 14 0 0 0,20-13-197 0 0,0 0 0 0 0,-16 15-1 0 0,22-18-559 0 0,-3 3-7 0 0,0 1 0 0 0,1 0 0 0 0,-16 23 0 0 0,13-15-78 0 0,6-10 46 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,0 0 1 0 0,-3 11-1 0 0,-4 23-49 0 0,5-24 22 0 0,1 0 1 0 0,-3 25-1 0 0,3-8-51 0 0,2-14 42 0 0,0 34 0 0 0,3-49 79 0 0,0 0 1 0 0,1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,6 14 1 0 0,-1-8 284 0 0,-1-1 1 0 0,2 1 0 0 0,17 23-1 0 0,-20-31-222 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,12 4 0 0 0,-7-3-65 0 0,1 0-1 0 0,-1-1 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,19-2 1 0 0,-14-1 23 0 0,0 0 0 0 0,0-2 0 0 0,0 0 0 0 0,27-11-1 0 0,-4 0-93 0 0,0-2 0 0 0,-2-2 0 0 0,47-30 0 0 0,-79 44-410 0 0,1-1-1 0 0,-2 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,7-14 0 0 0,-2 5-3326 0 0,9-13-3439 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4177.54">1713 543 22375 0 0,'8'22'1984'0'0,"-3"-7"-1584"0"0,-2-1-320 0 0,3 2-80 0 0,5 2-184 0 0,-3 0-48 0 0,0-2-16 0 0,2-1 0 0 0,-2-1 560 0 0,6-1-112 0 0,-1 0 8 0 0,0-3-1920 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4513.24">2183 344 18543 0 0,'3'3'1428'0'0,"11"8"-1055"0"0,0 1 0 0 0,-1 1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,17 28-1 0 0,-21-31-241 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-2-1 0 0 0,2 18 0 0 0,-11 65-19 0 0,-24 125 0 0 0,23-169-272 0 0,-20 91-787 0 0,14-86-1799 0 0,9-37-2091 0 0,1-2-1929 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4514.24">2819 302 22231 0 0,'107'81'2440'0'0,"-98"-74"-2399"0"0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1-1 0 0 0,14 2-1 0 0,-9-2 1 0 0,1-1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,33-7 1 0 0,-29-1-3956 0 0,-14 5 135 0 0,6-3-3824 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4901.25">3007 751 18543 0 0,'1'3'1428'0'0,"2"8"-1245"0"0,1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,2-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,8 8 0 0 0,-8-12 87 0 0,1-1 1 0 0,-1 1-1 0 0,1-2 1 0 0,17 8-1 0 0,-14-6-80 0 0,-3-3-126 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-2-1 0 0,0 1 1 0 0,1-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,15-6 1 0 0,-7 1-96 0 0,0-1 1 0 0,-1 0 0 0 0,0-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,25-22-1 0 0,-34 27-92 0 0,0-2-1 0 0,0 1 1 0 0,0 0-1 0 0,5-9 1 0 0,5-13-6018 0 0,-4 6-1326 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5248.09">3359 430 18543 0 0,'0'0'1428'0'0,"3"2"-924"0"0,7 9-236 0 0,0 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,12 24 0 0 0,-12-20-16 0 0,11 22-10 0 0,-1 2 1 0 0,-2-1-1 0 0,17 69 0 0 0,-22-53-169 0 0,-3 1 0 0 0,-2 0 0 0 0,-3 0 0 0 0,-5 82 0 0 0,0-115-66 0 0,-1-1 1 0 0,-2 1-1 0 0,0-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-1 1 0 0,-1 0-1 0 0,-16 28 0 0 0,20-41-115 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-2 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-17 3 0 0 0,20-6 180 0 0,0 1 0 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,2 0 0 0 0,-8-10 0 0 0,7 7-58 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-2-11 0 0 0,4 15 12 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,5-9-1 0 0,-3 7-23 0 0,-2 4 5 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,3-1-1 0 0,2 0 57 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,12-1 0 0 0,4 2 59 0 0,25 4-1 0 0,8-1-107 0 0,-32-3 18 0 0,-6 1-21 0 0,0-1 0 0 0,24-4 0 0 0,-36 3-11 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,9-8 0 0 0,-4 2-159 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,10-18-1 0 0,3-19-6176 0 0,-8 7-1294 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5578.64">3928 517 18543 0 0,'10'28'1042'0'0,"-1"0"1"0"0,9 52-1 0 0,-11-48-68 0 0,18 56 0 0 0,-11-45-677 0 0,-10-29-223 0 0,1-1 1 0 0,0 1-1 0 0,12 21 0 0 0,-8-20-163 0 0,0 0 0 0 0,14 14 0 0 0,2-6-2108 0 0,-22-21 807 0 0,2 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,9 2 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5579.64">4299 786 13039 0 0,'0'0'1006'0'0,"-1"3"-658"0"0,-9 27 464 0 0,4-13 590 0 0,-8 36 1 0 0,-13 66 686 0 0,14-67-1474 0 0,-4 20 631 0 0,-17 144 1 0 0,33-199-1194 0 0,-1 7 28 0 0,1 0 0 0 0,1-1-1 0 0,3 26 1 0 0,-1-30-29 0 0,2 6 67 0 0,7 28-1 0 0,-9-45-72 0 0,0 0-1 0 0,1 0 1 0 0,0-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,9 11 0 0 0,1-5-29 0 0,-12-11-17 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,3-2 0 0 0,7-2-26 0 0,-1-2 0 0 0,0 1 0 0 0,11-10 0 0 0,-13 10-21 0 0,3-5-18 0 0,-1 0 1 0 0,0 0-1 0 0,0-2 0 0 0,-1 1 1 0 0,12-19-1 0 0,-10 13-132 0 0,-1 1-413 0 0,17-29 1 0 0,-6 1-4261 0 0,-20 39 3820 0 0,18-34-6002 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5907">4919 682 23239 0 0,'27'129'2562'0'0,"-11"-77"-2567"0"0,1-1 1 0 0,3-1-1 0 0,43 79 1 0 0,-44-96 1 0 0,38 66-107 0 0,-31-52-804 0 0,-16-27-5488 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6257.09">5410 712 13039 0 0,'1'55'1079'0'0,"-8"79"-1"0"0,5-106-16 0 0,-27 169 5871 0 0,28-190-6836 0 0,-6 24 363 0 0,-2 0-1 0 0,-19 44 0 0 0,22-60-365 0 0,1-3-41 0 0,-2 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-14 14 1 0 0,11-12-81 0 0,7-9-10 0 0,0 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,-12 3 0 0 0,11-3 43 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-13-4-1 0 0,17 4 63 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,-1-5 1 0 0,2 3-58 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-9 0 0 0,-2 8-14 0 0,0 1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,11 3 0 0 0,0 3 63 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,18 18 0 0 0,7 11 37 0 0,40 51 0 0 0,-34-37-941 0 0,-24-30-5319 0 0,1-1-2166 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6258.09">6227 1424 23327 0 0,'20'26'512'0'0,"-5"-8"112"0"0,-1-1 16 0 0,8 1 8 0 0,2-2-520 0 0,3-1-128 0 0,0-2 0 0 0,2-5-6880 0 0,-2-8-1408 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">188 1630 10999 0 0,'-2'2'85'0'0,"0"-1"0"0"0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-5 0 0 0 0,4 0 164 0 0,1 0 0 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-6 3 0 0 0,-5 4 1483 0 0,10-6-1378 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 5 0 0 0,-9 38 52 0 0,2 1 0 0 0,-3 65 0 0 0,7 99-293 0 0,4-77 440 0 0,-2-8-168 0 0,-5 122 244 0 0,2 32-107 0 0,5-138-302 0 0,17 372-61 0 0,-13-468-181 0 0,-2-23-55 0 0,1 1 0 0 0,1-1-1 0 0,1 0 1 0 0,9 29-1 0 0,-12-50 13 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 6-1 0 0,0 4-7189 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="522.21">202 2083 16559 0 0,'45'230'1766'0'0,"-10"-39"-782"0"0,-20-119-74 0 0,29 117 1239 0 0,-31-144-1925 0 0,2 0-1 0 0,22 47 0 0 0,-30-78-185 0 0,0-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,1-1-1 0 0,13 13 0 0 0,-19-21-34 0 0,1 1-1 0 0,0-1 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1-1 0 0 0,11 1 0 0 0,-12-2-37 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,7-6-1 0 0,-5 4-54 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,5-11 0 0 0,34-64-475 0 0,4-7 248 0 0,47-130 148 0 0,-5 16 544 0 0,-67 154-67 0 0,34-56 1 0 0,-55 101-297 0 0,8-13 142 0 0,0 1 1 0 0,1 1-1 0 0,24-27 0 0 0,-30 36-136 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,8-1 1 0 0,2 5-19 0 0,-10 0-4 0 0,1 0-1 0 0,-1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,5 8-1 0 0,34 49 22 0 0,-30-39 39 0 0,5 10 215 0 0,21 48-1 0 0,-10-17-75 0 0,-15-31-154 0 0,-3 1 0 0 0,13 47 1 0 0,-17-51 14 0 0,10 43 405 0 0,17 148 0 0 0,-21-110-210 0 0,4 52-56 0 0,-3 178 0 0 0,-16-274-107 0 0,2 55-102 0 0,-1-78-173 0 0,-1-28 30 0 0,0-1 0 0 0,1 1 1 0 0,4 17-1 0 0,1-2-1586 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1132.28">1901 4263 15199 0 0,'2'-8'283'0'0,"0"4"-154"0"0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1-9 1 0 0,-3-8-105 0 0,-1-3 382 0 0,-3-45 0 0 0,10-264 3294 0 0,31-14-2859 0 0,-8 123-179 0 0,6 19-123 0 0,-9 78-264 0 0,54-230-76 0 0,-71 337-183 0 0,15-62 442 0 0,42-110 0 0 0,-46 153-346 0 0,-11 24-66 0 0,1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,13-18-1 0 0,-4 8-46 0 0,-13 22 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,6-2 0 0 0,4 2 0 0 0,-10 3 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,3 5 0 0 0,6 9 15 0 0,0 0 0 0 0,-2 1 0 0 0,15 27 0 0 0,-6-9 13 0 0,-12-21 43 0 0,-1-1 1 0 0,0 1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,6 28-1 0 0,-5-22-2 0 0,16 40-1 0 0,4 8-146 0 0,34 173 2 0 0,-26-112 140 0 0,57 199-63 0 0,-69-237-12 0 0,-8-28-47 0 0,-4-14 212 0 0,7 82 0 0 0,-9-54-86 0 0,3 185-42 0 0,-1-24-902 0 0,-10-201-1417 0 0,-12-50-4860 0 0,-2-3 374 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1542.39">2310 2988 18543 0 0,'0'0'1932'0'0,"-5"17"-1049"0"0,6-12-646 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,4 5 1 0 0,6 3-33 0 0,-7-8-181 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,8-3 0 0 0,0 0-43 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1-1-1 0 0,1 0 1 0 0,18-14-1 0 0,20-17-407 0 0,-2-2 0 0 0,-2-2 0 0 0,65-74 0 0 0,-82 81-5383 0 0,-1 2-1886 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2459.72">4050 3188 19119 0 0,'0'0'1994'0'0,"-12"14"-143"0"0,10-13-1690 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-1 0 0 0,-36-10 151 0 0,16 3-228 0 0,-9 1-173 0 0,0 1-1 0 0,-38-2 1 0 0,56 7 54 0 0,0 1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 1 0 0 0,-27 8 0 0 0,35-8 35 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-9 9 0 0 0,-39 40 0 0 0,51-48 0 0 0,-4 5-8 0 0,1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 1-1 0 0,-7 19 1 0 0,2-6-6 0 0,5-7 14 0 0,9-14 0 0 0,-1-2 0 0 0,-1 9-3 0 0,0-10-5 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,1 1-1 0 0,7 11-117 0 0,-3-4 10 0 0,1 1 1 0 0,10 10-1 0 0,54 63-2 0 0,-50-60 307 0 0,8 13 102 0 0,2-1 1 0 0,1-2 0 0 0,69 56-1 0 0,-84-76-278 0 0,-2-1-1 0 0,1 2 1 0 0,24 31-1 0 0,-33-38-35 0 0,66 65 23 0 0,-62-63 5 0 0,-8-7-14 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,2 5-1 0 0,-2-5 16 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 4-1 0 0,-9 17 43 0 0,10-18-9 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-5 6 0 0 0,1-2 186 0 0,-1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-12 8 1 0 0,-1-1 16 0 0,13-10-337 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,-12 3 0 0 0,2-2 212 0 0,-1-2 1 0 0,0-1 0 0 0,0 0 0 0 0,-34-2-1 0 0,16 0-153 0 0,26 0-34 0 0,-7-1-23 0 0,5 3 69 0 0,13-2-5 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,0 5-155 0 0,-1 0 1 0 0,1 0-1 0 0,-1 10 0 0 0,1-8 21 0 0,2-1 89 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,1 12 0 0 0,1 5 76 0 0,-2-18 2 0 0,0 0 0 0 0,0 0 0 0 0,5 13 0 0 0,-6-19 81 0 0,10 11 262 0 0,-1-10-385 0 0,-7-3 27 0 0,7 0-43 0 0,-6-2 62 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,2-3-1 0 0,14-42 3 0 0,-12 31-15 0 0,-4 10-30 0 0,-3-10-158 0 0,-1-16 370 0 0,-3 32-25 0 0,1 5-152 0 0,2 6-3 0 0,1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1 18 1 0 0,10 50-198 0 0,-6-40 188 0 0,-3-27 14 0 0,0 0-1 0 0,1-1 0 0 0,0 1 1 0 0,3 10-1 0 0,9 26-600 0 0,-13-45-764 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3436.66">277 0 20327 0 0,'0'0'1567'0'0,"0"3"-1014"0"0,2 26-200 0 0,2 0 0 0 0,1-1 0 0 0,10 32-1 0 0,-9-39-280 0 0,33 113 253 0 0,-32-115-341 0 0,1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,23 31 0 0 0,-20-33 14 0 0,-9-11-16 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,11 5 1 0 0,-9-6-322 0 0,0-1 0 0 0,1 0 0 0 0,11 2 1 0 0,10-2-5437 0 0,-3-3-1468 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3799.16">947 483 13039 0 0,'0'0'4912'0'0,"-1"1"-3708"0"0,-9 8-446 0 0,-1-1 0 0 0,-22 14 0 0 0,20-14-197 0 0,0 1 0 0 0,-16 15-1 0 0,22-18-559 0 0,-3 3-7 0 0,0 1 0 0 0,1 0 0 0 0,-16 22 0 0 0,13-14-78 0 0,6-10 46 0 0,0 0 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-3 12-1 0 0,-4 23-49 0 0,5-25 22 0 0,1 0 1 0 0,-3 26-1 0 0,3-9-51 0 0,2-13 42 0 0,0 33 0 0 0,3-48 79 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,6 14 1 0 0,-1-9 284 0 0,-1 1 1 0 0,2-1 0 0 0,17 23-1 0 0,-20-30-222 0 0,-1-1 1 0 0,1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,12 4 0 0 0,-7-3-65 0 0,1-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 0 0 0,19-2 1 0 0,-14 0 23 0 0,0-2 0 0 0,0 0 0 0 0,0-2 0 0 0,27-9-1 0 0,-4-1-93 0 0,0-2 0 0 0,-2-2 0 0 0,47-29 0 0 0,-79 43-410 0 0,1 0-1 0 0,-2 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,7-14 0 0 0,-2 5-3326 0 0,9-12-3439 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4177.54">1713 533 22375 0 0,'8'23'1984'0'0,"-3"-9"-1584"0"0,-2 0-320 0 0,3 2-80 0 0,5 1-184 0 0,-3 1-48 0 0,0-2-16 0 0,2-2 0 0 0,-2 0 560 0 0,6-1-112 0 0,-1 0 8 0 0,0-4-1920 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4513.24">2183 338 18543 0 0,'3'3'1428'0'0,"11"8"-1055"0"0,0 1 0 0 0,-1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,-1 0 0 0 0,17 27-1 0 0,-21-31-241 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-2 1 0 0 0,2 16 0 0 0,-11 65-19 0 0,-24 122 0 0 0,23-167-272 0 0,-20 91-787 0 0,14-84-1799 0 0,9-38-2091 0 0,1-1-1929 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4514.24">2819 297 22231 0 0,'107'80'2440'0'0,"-98"-74"-2399"0"0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,14 1-1 0 0,-9-2 1 0 0,1-1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1-2-1 0 0,33-5 1 0 0,-29-3-3956 0 0,-14 6 135 0 0,6-2-3824 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4901.25">3007 738 18543 0 0,'1'3'1428'0'0,"2"8"-1245"0"0,1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,2-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,8 9 0 0 0,-8-12 87 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,17 7-1 0 0,-14-7-80 0 0,-3-2-126 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0-1-1 0 0,15-5 1 0 0,-7 1-96 0 0,0 0 1 0 0,-1-2 0 0 0,0 1-1 0 0,-1-2 1 0 0,0 0 0 0 0,25-21-1 0 0,-34 25-92 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,5-9 1 0 0,5-12-6018 0 0,-4 5-1326 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5248.09">3359 422 18543 0 0,'0'0'1428'0'0,"3"3"-924"0"0,7 7-236 0 0,0 1-1 0 0,-1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,12 23 0 0 0,-12-19-16 0 0,11 21-10 0 0,-1 2 1 0 0,-2 0-1 0 0,17 67 0 0 0,-22-52-169 0 0,-3 1 0 0 0,-2 0 0 0 0,-3 0 0 0 0,-5 81 0 0 0,0-114-66 0 0,-1 0 1 0 0,-2 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-1 0 1 0 0,-1-1-1 0 0,-16 28 0 0 0,20-39-115 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-2 1 0 0 0,1-2 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-17 3 0 0 0,20-6 180 0 0,0 1 0 0 0,0-1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,2 1 0 0 0,-8-11 0 0 0,7 7-58 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-2-11 0 0 0,4 15 12 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,5-8-1 0 0,-3 6-23 0 0,-2 4 5 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,3-1-1 0 0,2 0 57 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,12-1 0 0 0,4 2 59 0 0,25 3-1 0 0,8 0-107 0 0,-32-2 18 0 0,-6-1-21 0 0,0 0 0 0 0,24-4 0 0 0,-36 3-11 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,9-6 0 0 0,-4 1-159 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,10-17-1 0 0,3-20-6176 0 0,-8 8-1294 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5578.64">3928 508 18543 0 0,'10'27'1042'0'0,"-1"1"1"0"0,9 51-1 0 0,-11-48-68 0 0,18 56 0 0 0,-11-45-677 0 0,-10-28-223 0 0,1-1 1 0 0,0 0-1 0 0,12 22 0 0 0,-8-21-163 0 0,0 1 0 0 0,14 13 0 0 0,2-5-2108 0 0,-22-20 807 0 0,2-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,9 3 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5579.64">4299 773 13039 0 0,'0'0'1006'0'0,"-1"3"-658"0"0,-9 26 464 0 0,4-12 590 0 0,-8 35 1 0 0,-13 64 686 0 0,14-65-1474 0 0,-4 21 631 0 0,-17 140 1 0 0,33-195-1194 0 0,-1 6 28 0 0,1 0 0 0 0,1 1-1 0 0,3 23 1 0 0,-1-28-29 0 0,2 5 67 0 0,7 29-1 0 0,-9-45-72 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,9 11 0 0 0,1-5-29 0 0,-12-12-17 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,3-3 0 0 0,7-3-26 0 0,-1 0 0 0 0,0-1 0 0 0,11-8 0 0 0,-13 9-21 0 0,3-5-18 0 0,-1 1 1 0 0,0-2-1 0 0,0 0 0 0 0,-1 0 1 0 0,12-19-1 0 0,-10 14-132 0 0,-1 1-413 0 0,17-30 1 0 0,-6 2-4261 0 0,-20 38 3820 0 0,18-34-6002 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5907">4919 670 23239 0 0,'27'127'2562'0'0,"-11"-76"-2567"0"0,1-1 1 0 0,3 0-1 0 0,43 76 1 0 0,-44-93 1 0 0,38 64-107 0 0,-31-51-804 0 0,-16-26-5488 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6257.09">5410 700 13039 0 0,'1'54'1079'0'0,"-8"77"-1"0"0,5-103-16 0 0,-27 165 5871 0 0,28-185-6836 0 0,-6 22 363 0 0,-2 0-1 0 0,-19 44 0 0 0,22-59-365 0 0,1-4-41 0 0,-2 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,-14 14 1 0 0,11-13-81 0 0,7-7-10 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-12 1 0 0 0,11-2 43 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-13-4-1 0 0,17 4 63 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,-1-3 1 0 0,2 1-58 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,3-10 0 0 0,-2 9-14 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 0 0 0,11 3 0 0 0,0 3 63 0 0,0 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0 0 0 0 0,18 17 0 0 0,7 11 37 0 0,40 50 0 0 0,-34-36-941 0 0,-24-29-5319 0 0,1-1-2166 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6258.09">6227 1400 23327 0 0,'20'25'512'0'0,"-5"-8"112"0"0,-1 1 16 0 0,8-1 8 0 0,2-1-520 0 0,3-1-128 0 0,0-3 0 0 0,2-4-6880 0 0,-2-8-1408 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12493,12 +13752,12 @@
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7483 3286 18543 0 0,'0'0'2734'0'0,"3"1"-1953"0"0,8 2 33 0 0,-8-2 1346 0 0,-3-3-2054 0 0,0 0-89 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,-4-3 0 0 0,3 3 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-6 2 0 0 0,3-1-35 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0 0 0 0 0,-3 7-1 0 0,1-1-50 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-4 15 0 0 0,6-19 14 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,3 15 0 0 0,0-7 59 0 0,0-8 34 0 0,2-1 15 0 0,-3-6-10 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,5 2 1 0 0,10-3 64 0 0,20-8-214 0 0,21-8 286 0 0,-53 14-169 0 0,32-5 60 0 0,-18 6-57 0 0,-16 2 80 0 0,-3 0-20 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 2-1 0 0,17 10 368 0 0,-17-11-449 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 1 0 0,2 4-79 0 0,12 23-66 0 0,-9-12 152 0 0,8 45 144 0 0,-13-60-147 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 2 1 0 0,-1 0-5 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,2 5 0 0 0,-5 18 54 0 0,3-23-50 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,2 2-1 0 0,-1 2-77 0 0,-1-3-13 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,3 2 0 0 0,-2-2-62 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,7 1-1 0 0,27 1-7862 0 0,-18-5 1348 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-921.52">6321 2630 18543 0 0,'0'0'1932'0'0,"-1"2"-1722"0"0,-25 22 1953 0 0,25-23-2064 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-3 7 270 0 0,-17 15 739 0 0,15-19-1074 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-6 12-1 0 0,-11 20 295 0 0,16-31-286 0 0,0 0-1 0 0,0 1 0 0 0,-6 17 1 0 0,-1 18-23 0 0,-13 89-1 0 0,10 49 233 0 0,0-18 285 0 0,14-146-1085 0 0,0 19 131 0 0,5-13-4459 0 0,7-39-2494 0 0,0-5 1247 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-539.84">6284 2858 13039 0 0,'0'0'1524'0'0,"0"3"-606"0"0,-4 26 1046 0 0,1-9-891 0 0,1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,4 31 0 0 0,0-34-912 0 0,1-1 0 0 0,0 0-1 0 0,8 18 1 0 0,-10-29-177 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,6 4-1 0 0,10 2-64 0 0,-15-10 56 0 0,1 1 1 0 0,0-1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,8-5 1 0 0,2-3-111 0 0,0 0 0 0 0,-1 0 0 0 0,-1-2 0 0 0,0 0 0 0 0,13-15-1 0 0,4-8 48 0 0,31-47-1 0 0,-52 69 323 0 0,1 0 0 0 0,12-12-1 0 0,-22 25 678 0 0,2 4-627 0 0,3 5-159 0 0,-1 1 1 0 0,1 0-1 0 0,-2 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,3 16-1 0 0,8 23 178 0 0,-10-35-191 0 0,0 0 1 0 0,0 0-1 0 0,1 20 0 0 0,-1-4 34 0 0,-2-17-121 0 0,-1 0 0 0 0,0 0 0 0 0,-2 19-1 0 0,0-26-31 0 0,-2 32 153 0 0,-2 0 1 0 0,-2 1-1 0 0,-21 66 0 0 0,8-42-12 0 0,-3 11-75 0 0,19-67-59 0 0,2-4-2 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 5 0 0 0,0 3 96 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2183.09">9712 3031 16095 0 0,'-15'3'496'0'0,"0"2"-1"0"0,0 0 0 0 0,-26 12 1 0 0,-20 7 1342 0 0,-25 5-503 0 0,-85 42 0 0 0,120-49-1133 0 0,17-6-102 0 0,0 1 1 0 0,-39 27-1 0 0,58-34 60 0 0,0 2-1 0 0,0-1 1 0 0,2 2-1 0 0,-1 0 0 0 0,2 0 1 0 0,-19 26-1 0 0,21-24-60 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,1 1 0 0 0,-3 35 0 0 0,6-26-95 0 0,1 0 0 0 0,2 0 1 0 0,0-1-1 0 0,2 1 0 0 0,1-1 1 0 0,10 30-1 0 0,-4-21-4 0 0,2 0 0 0 0,1-1 0 0 0,1-1 0 0 0,22 32 0 0 0,34 66 121 0 0,-40-69 185 0 0,-14-26-229 0 0,-15-30-65 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,2 12 1 0 0,-2-5-47 0 0,1 0-1 0 0,6 14 0 0 0,-8-25-109 0 0,1 0-147 0 0,1 1 253 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,4 1 1 0 0,12 0-145 0 0,-13-4 351 0 0,-3 3-123 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,3 4-1 0 0,-3-3 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 7-1 0 0,-1 4 150 0 0,-5 28 0 0 0,2-20-68 0 0,-2 7-112 0 0,-16 51 0 0 0,5-24-99 0 0,11-39-11 0 0,-13 29 1 0 0,11-29 0 0 0,-8 24 0 0 0,-22 90-418 0 0,-12 72 826 0 0,29-101 18 0 0,-4 9-33 0 0,6 1-1 0 0,5 0 0 0 0,4 1 1 0 0,9 190-1 0 0,4-249-271 0 0,6 62 68 0 0,-6-102-83 0 0,0 0 0 0 0,0 0 0 0 0,2 0 1 0 0,0-1-1 0 0,12 24 0 0 0,1 3-45 0 0,-12-28 0 0 0,-1 0 0 0 0,9 12 0 0 0,-11-21 28 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,7 4 0 0 0,1 0-11 0 0,-9-5-8 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,7 1 1 0 0,-8-3-141 0 0,-1-1 114 0 0,-1 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1-2 1 0 0,4-3-869 0 0,6-18-5298 0 0,0-7-2084 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3643">1 191 13823 0 0,'195'-25'1512'0'0,"-35"1"-251"0"0,43-4 1586 0 0,87 7-927 0 0,-82-2-1017 0 0,-74 6-574 0 0,-124 16-306 0 0,637-51 457 0 0,454 72-715 0 0,-931-5 245 0 0,587 58-92 0 0,-285-21 39 0 0,116 12-650 0 0,-1 21-659 0 0,719 125 1938 0 0,-675-110 1790 0 0,-393-61-1473 0 0,9 14-21 0 0,-53-10-365 0 0,-116-28-440 0 0,56 9 248 0 0,184 59 1 0 0,-305-80-345 0 0,1 0 0 0 0,25 3 0 0 0,-5-1-76 0 0,-20-6-500 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4206.41">3318 764 13039 0 0,'15'27'550'0'0,"-2"0"-1"0"0,17 47 0 0 0,-3-5 607 0 0,19 28 25 0 0,4-2-1 0 0,100 140 0 0 0,156 151-879 0 0,-84-118 1952 0 0,122 136-912 0 0,69 6 42 0 0,-352-356-887 0 0,4-3 1 0 0,137 84-1 0 0,-147-105-357 0 0,1-2-1 0 0,2-3 1 0 0,0-2 0 0 0,91 23-1 0 0,-117-39-100 0 0,1-1-1 0 0,41 2 0 0 0,-57-8-259 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,1-1 0 0 0,21-6 0 0 0,-8-4-5949 0 0,-3-5-2093 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7496 3234 18543 0 0,'0'0'2734'0'0,"3"1"-1953"0"0,8 2 33 0 0,-8-2 1346 0 0,-3-3-2054 0 0,0 0-89 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-4-1 0 0 0,3 1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,-6 2 0 0 0,3-1-35 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-3 7-1 0 0,0-1-50 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-4 14 0 0 0,6-17 14 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,3 16 0 0 0,0-7 59 0 0,0-8 34 0 0,2-2 15 0 0,-3-4-10 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,5 0 1 0 0,10-1 64 0 0,20-9-214 0 0,21-9 286 0 0,-53 16-169 0 0,33-7 60 0 0,-19 8-57 0 0,-17 1 80 0 0,-2 0-20 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,16 12 368 0 0,-18-13-449 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,2 4-79 0 0,12 23-66 0 0,-9-12 152 0 0,8 44 144 0 0,-13-59-147 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-5 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 5 0 0 0,-4 18 54 0 0,3-24-50 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2 4-1 0 0,-1 1-77 0 0,-1-3-13 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,3 2 0 0 0,-2-2-62 0 0,0 0 1 0 0,-1 0-1 0 0,2-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-2 1 0 0,-1 1-1 0 0,0 0 1 0 0,7 0-1 0 0,28 0-7862 0 0,-20-4 1348 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-921.52">6333 2588 18543 0 0,'0'0'1932'0'0,"-2"2"-1722"0"0,-24 22 1953 0 0,25-23-2064 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-3 6 270 0 0,-17 16 739 0 0,15-18-1074 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-6 13-1 0 0,-11 19 295 0 0,16-30-286 0 0,0 1-1 0 0,0-1 0 0 0,-6 18 1 0 0,-1 17-23 0 0,-13 89-1 0 0,9 46 233 0 0,1-16 285 0 0,15-144-1085 0 0,-1 18 131 0 0,5-12-4459 0 0,7-40-2494 0 0,0-3 1247 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-539.84">6295 2813 13039 0 0,'0'0'1524'0'0,"0"3"-606"0"0,-4 25 1046 0 0,1-8-891 0 0,1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,4 32 0 0 0,0-35-912 0 0,1-1 0 0 0,0 1-1 0 0,8 18 1 0 0,-10-29-177 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,6 4-1 0 0,9 1-64 0 0,-14-8 56 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,9-5 1 0 0,1-3-111 0 0,-1 1 0 0 0,0-2 0 0 0,0 0 0 0 0,-1-1 0 0 0,12-15-1 0 0,5-7 48 0 0,32-47-1 0 0,-53 68 323 0 0,0 1 0 0 0,14-13-1 0 0,-23 25 678 0 0,1 4-627 0 0,4 5-159 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,2 15-1 0 0,8 23 178 0 0,-10-34-191 0 0,0 0 1 0 0,0 0-1 0 0,1 19 0 0 0,-1-3 34 0 0,-2-18-121 0 0,-1 1 0 0 0,0 0 0 0 0,-2 19-1 0 0,0-27-31 0 0,-2 33 153 0 0,-2 0 1 0 0,-2-1-1 0 0,-21 68 0 0 0,8-44-12 0 0,-4 12-75 0 0,20-66-59 0 0,3-4-2 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 6 0 0 0,0 1 96 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2183.09">9729 2983 16095 0 0,'-15'3'496'0'0,"0"2"-1"0"0,0-1 0 0 0,-26 13 1 0 0,-21 7 1342 0 0,-23 5-503 0 0,-87 41 0 0 0,121-49-1133 0 0,17-5-102 0 0,0 1 1 0 0,-39 26-1 0 0,57-33 60 0 0,2 1-1 0 0,-1 1 1 0 0,1 0-1 0 0,1 1 0 0 0,0 0 1 0 0,-17 25-1 0 0,20-23-60 0 0,1 0 0 0 0,0 1 0 0 0,2 1 0 0 0,-1-1 0 0 0,2 1-1 0 0,1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-3 34 0 0 0,6-25-95 0 0,1-1 0 0 0,1 1 1 0 0,2-1-1 0 0,1 0 0 0 0,1 0 1 0 0,9 29-1 0 0,-3-21-4 0 0,2 0 0 0 0,2 0 0 0 0,0-2 0 0 0,22 33 0 0 0,34 64 121 0 0,-40-68 185 0 0,-14-26-229 0 0,-15-30-65 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,2 12 1 0 0,-2-5-47 0 0,2-1-1 0 0,4 15 0 0 0,-7-25-109 0 0,1 0-147 0 0,1 1 253 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,4 1 1 0 0,13 0-145 0 0,-14-4 351 0 0,-4 3-123 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,2 4-1 0 0,-2-3 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 6-1 0 0,-1 6 150 0 0,-5 26 0 0 0,2-19-68 0 0,-1 6-112 0 0,-18 51 0 0 0,6-24-99 0 0,11-39-11 0 0,-13 30 1 0 0,11-30 0 0 0,-8 25 0 0 0,-22 88-418 0 0,-12 71 826 0 0,28-100 18 0 0,-2 9-33 0 0,5 1-1 0 0,4 1 0 0 0,6 0 1 0 0,8 187-1 0 0,4-245-271 0 0,6 61 68 0 0,-7-100-83 0 0,1 0 0 0 0,1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,12 24 0 0 0,1 2-45 0 0,-13-28 0 0 0,1 1 0 0 0,8 12 0 0 0,-11-21 28 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,7 4 0 0 0,1 0-11 0 0,-9-5-8 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1-1 0 0,5 1 1 0 0,-7-3-141 0 0,-1-1 114 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,4-4-869 0 0,6-19-5298 0 0,1-5-2084 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3643">1 188 13823 0 0,'195'-24'1512'0'0,"-35"0"-251"0"0,44-4 1586 0 0,87 7-927 0 0,-83-1-1017 0 0,-74 5-574 0 0,-124 16-306 0 0,638-50 457 0 0,456 71-715 0 0,-935-5 245 0 0,590 57-92 0 0,-286-22 39 0 0,116 14-650 0 0,-1 19-659 0 0,720 124 1938 0 0,-676-109 1790 0 0,-394-59-1473 0 0,10 13-21 0 0,-54-10-365 0 0,-115-27-440 0 0,55 8 248 0 0,185 59 1 0 0,-306-79-345 0 0,0 0 0 0 0,26 3 0 0 0,-5-1-76 0 0,-20-6-500 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4206.41">3324 752 13039 0 0,'15'26'550'0'0,"-2"1"-1"0"0,17 45 0 0 0,-3-4 607 0 0,19 28 25 0 0,4-3-1 0 0,100 139 0 0 0,157 148-879 0 0,-85-116 1952 0 0,123 133-912 0 0,68 7 42 0 0,-351-351-887 0 0,2-2 1 0 0,139 81-1 0 0,-148-102-357 0 0,2-3-1 0 0,0-2 1 0 0,2-2 0 0 0,90 21-1 0 0,-117-37-100 0 0,1-1-1 0 0,41 2 0 0 0,-57-7-259 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,23-7 0 0 0,-9-3-5949 0 0,-4-4-2093 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13339,10 +14598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9547045A-2320-46EC-80FB-0188480DF562}">
-  <dimension ref="A1:O223"/>
+  <dimension ref="A1:O329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D240" sqref="D240"/>
+    <sheetView topLeftCell="E251" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF340" sqref="AF340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -14025,10 +15284,87 @@
         <v>70</v>
       </c>
     </row>
+    <row r="262" spans="9:10" x14ac:dyDescent="0.65">
+      <c r="J262" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="263" spans="9:10" x14ac:dyDescent="0.65">
+      <c r="J263" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="268" spans="9:10" x14ac:dyDescent="0.65">
+      <c r="J268" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="272" spans="9:10" x14ac:dyDescent="0.65">
+      <c r="I272" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="274" spans="8:9" x14ac:dyDescent="0.65">
+      <c r="H274" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="275" spans="8:9" x14ac:dyDescent="0.65">
+      <c r="I275" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="307" spans="8:8" x14ac:dyDescent="0.65">
+      <c r="H307" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="313" spans="8:8" x14ac:dyDescent="0.65">
+      <c r="H313">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="320" spans="8:8" x14ac:dyDescent="0.65">
+      <c r="H320" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="329" spans="8:8" x14ac:dyDescent="0.65">
+      <c r="H329" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8AD38F-5E99-4517-8A27-E67878637E6F}">
+  <dimension ref="G28:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.65">
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.65">
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>